--- a/latex/performance_content/scaling/ItascaScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaScaling.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26900" windowHeight="26620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43540" windowHeight="27320" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strong 4.096M nodes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>n=17</t>
   </si>
@@ -154,16 +154,10 @@
     <t>Iterations required</t>
   </si>
   <si>
-    <t>SpMV (4000 iters) [ms]</t>
-  </si>
-  <si>
     <t xml:space="preserve">for d in `/bin/ls -d reg_1000000_101_*`; do  grep -r "Stencil gen" ${d}/time_log.* |tr '_' ' '| awk '{print $4, $10}'; done | sort -n </t>
   </si>
   <si>
     <t>for d in `/bin/ls -d reg_1000000_101_*`; do  grep -r "Compute Weight" ${d}/time_log.* | awk '{sum+=$6} END { print NR, "Average = ",sum/NR}'; done | sort -n</t>
-  </si>
-  <si>
-    <t>IMPI</t>
   </si>
   <si>
     <t>n=17, isend/irecv</t>
@@ -221,6 +215,18 @@
   </si>
   <si>
     <t>of 1024 processors and n=101 is communication</t>
+  </si>
+  <si>
+    <t>OMPI</t>
+  </si>
+  <si>
+    <t>THESE NUMBERs ARE ISEND?IRECV</t>
+  </si>
+  <si>
+    <t>SpMV (4000 iters)</t>
+  </si>
+  <si>
+    <t>Unit: ms</t>
   </si>
 </sst>
 </file>
@@ -1638,11 +1644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125400728"/>
-        <c:axId val="2127990504"/>
+        <c:axId val="1788112184"/>
+        <c:axId val="1788117736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125400728"/>
+        <c:axId val="1788112184"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1672,12 +1678,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127990504"/>
+        <c:crossAx val="1788117736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127990504"/>
+        <c:axId val="1788117736"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1713,7 +1719,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125400728"/>
+        <c:crossAx val="1788112184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1776,7 +1782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2160,11 +2165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140621704"/>
-        <c:axId val="-2142222872"/>
+        <c:axId val="1788391208"/>
+        <c:axId val="1788396760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140621704"/>
+        <c:axId val="1788391208"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2187,19 +2192,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142222872"/>
+        <c:crossAx val="1788396760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142222872"/>
+        <c:axId val="1788396760"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2228,14 +2232,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140621704"/>
+        <c:crossAx val="1788391208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,7 +2249,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2303,7 +2305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2720,11 +2721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141591144"/>
-        <c:axId val="2121481240"/>
+        <c:axId val="1788527240"/>
+        <c:axId val="1788532792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141591144"/>
+        <c:axId val="1788527240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2747,19 +2748,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121481240"/>
+        <c:crossAx val="1788532792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121481240"/>
+        <c:axId val="1788532792"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2783,21 +2783,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141591144"/>
+        <c:crossAx val="1788527240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2854,7 +2852,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3171,11 +3168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146199960"/>
-        <c:axId val="2121146712"/>
+        <c:axId val="2121946296"/>
+        <c:axId val="2121545096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146199960"/>
+        <c:axId val="2121946296"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3198,19 +3195,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121146712"/>
+        <c:crossAx val="2121545096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121146712"/>
+        <c:axId val="2121545096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,14 +3229,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146199960"/>
+        <c:crossAx val="2121946296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3253,7 +3248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3596,11 +3590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138943096"/>
-        <c:axId val="2131142600"/>
+        <c:axId val="1788437176"/>
+        <c:axId val="1788442648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138943096"/>
+        <c:axId val="1788437176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3630,12 +3624,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131142600"/>
+        <c:crossAx val="1788442648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131142600"/>
+        <c:axId val="1788442648"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3671,7 +3665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138943096"/>
+        <c:crossAx val="1788437176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4140,11 +4134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142194376"/>
-        <c:axId val="-2138458232"/>
+        <c:axId val="1788572584"/>
+        <c:axId val="1788578136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142194376"/>
+        <c:axId val="1788572584"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4174,12 +4168,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138458232"/>
+        <c:crossAx val="1788578136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138458232"/>
+        <c:axId val="1788578136"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4215,7 +4209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142194376"/>
+        <c:crossAx val="1788572584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4591,11 +4585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142063848"/>
-        <c:axId val="2121181128"/>
+        <c:axId val="2065069464"/>
+        <c:axId val="2065074936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142063848"/>
+        <c:axId val="2065069464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4625,12 +4619,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121181128"/>
+        <c:crossAx val="2065074936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121181128"/>
+        <c:axId val="2065074936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142063848"/>
+        <c:crossAx val="2065069464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5342,11 +5336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131118648"/>
-        <c:axId val="-2133133160"/>
+        <c:axId val="2065128936"/>
+        <c:axId val="2065134568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131118648"/>
+        <c:axId val="2065128936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5376,12 +5370,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133133160"/>
+        <c:crossAx val="2065134568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133133160"/>
+        <c:axId val="2065134568"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5417,7 +5411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131118648"/>
+        <c:crossAx val="2065128936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5477,7 +5471,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv)</a:t>
+              <a:t>N=4096000 grid points; IMPI</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5781,11 +5775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141847896"/>
-        <c:axId val="-2133892840"/>
+        <c:axId val="2065169416"/>
+        <c:axId val="2065174920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141847896"/>
+        <c:axId val="2065169416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5815,12 +5809,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133892840"/>
+        <c:crossAx val="2065174920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133892840"/>
+        <c:axId val="2065174920"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5856,7 +5850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141847896"/>
+        <c:crossAx val="2065169416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5910,7 +5904,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv &amp; MPI_Isend)</a:t>
+              <a:t>N=4096000 grid points; IMPI (MPI_Isend/MPI_Irecv)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6332,11 +6326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140447656"/>
-        <c:axId val="-2133038024"/>
+        <c:axId val="-2073656264"/>
+        <c:axId val="-2073662280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140447656"/>
+        <c:axId val="-2073656264"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6366,12 +6360,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133038024"/>
+        <c:crossAx val="-2073662280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133038024"/>
+        <c:axId val="-2073662280"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6390,13 +6384,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6407,7 +6396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140447656"/>
+        <c:crossAx val="-2073656264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6790,11 +6779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133621192"/>
-        <c:axId val="2127096056"/>
+        <c:axId val="-2073687992"/>
+        <c:axId val="-2073685352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133621192"/>
+        <c:axId val="-2073687992"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6824,12 +6813,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127096056"/>
+        <c:crossAx val="-2073685352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127096056"/>
+        <c:axId val="-2073685352"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6865,7 +6854,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133621192"/>
+        <c:crossAx val="-2073687992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7422,11 +7411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119511512"/>
-        <c:axId val="2134983288"/>
+        <c:axId val="1788167592"/>
+        <c:axId val="1788173288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119511512"/>
+        <c:axId val="1788167592"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7456,12 +7445,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134983288"/>
+        <c:crossAx val="1788173288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134983288"/>
+        <c:axId val="1788173288"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7492,7 +7481,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119511512"/>
+        <c:crossAx val="1788167592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7519,6 +7508,463 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strong Scaling of SpMV + MPI Communication on Itasca</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv &amp; MPI_Isend)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$F$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=17 (Isend/Irecv)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$B$185:$B$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$F$185:$F$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>153.716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.7354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.9956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.1213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.04111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.49196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.93601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.69823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$G$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=31 (Isend/Irecv)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$B$185:$B$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$G$185:$G$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>229.499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.0093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.9563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.3064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.4277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.84284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.94379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.90071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$H$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=50 (Isend/Irecv)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$B$185:$B$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$H$185:$H$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>338.272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.3919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.8515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.05635</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.98044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.56869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.93045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2078647480"/>
+        <c:axId val="-2043863352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2078647480"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2043863352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2043863352"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078647480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7973,11 +8419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135388824"/>
-        <c:axId val="2137938328"/>
+        <c:axId val="2070434920"/>
+        <c:axId val="2070440504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135388824"/>
+        <c:axId val="2070434920"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8007,12 +8453,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137938328"/>
+        <c:crossAx val="2070440504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137938328"/>
+        <c:axId val="2070440504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8046,7 +8492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135388824"/>
+        <c:crossAx val="2070434920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8068,7 +8514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8523,11 +8969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138012808"/>
-        <c:axId val="2138001896"/>
+        <c:axId val="2070500392"/>
+        <c:axId val="2070505976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138012808"/>
+        <c:axId val="2070500392"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8557,12 +9003,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138001896"/>
+        <c:crossAx val="2070505976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2138001896"/>
+        <c:axId val="2070505976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8596,7 +9042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138012808"/>
+        <c:crossAx val="2070500392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8618,7 +9064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9041,11 +9487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135828840"/>
-        <c:axId val="2135522920"/>
+        <c:axId val="2070545336"/>
+        <c:axId val="2070550920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135828840"/>
+        <c:axId val="2070545336"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9075,12 +9521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135522920"/>
+        <c:crossAx val="2070550920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135522920"/>
+        <c:axId val="2070550920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9114,7 +9560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135828840"/>
+        <c:crossAx val="2070545336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9136,7 +9582,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9475,11 +9921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085016648"/>
-        <c:axId val="2085002600"/>
+        <c:axId val="2070586952"/>
+        <c:axId val="2070592456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085016648"/>
+        <c:axId val="2070586952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9509,12 +9955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085002600"/>
+        <c:crossAx val="2070592456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085002600"/>
+        <c:axId val="2070592456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,7 +9994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085016648"/>
+        <c:crossAx val="2070586952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9570,7 +10016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9942,11 +10388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131360360"/>
-        <c:axId val="2121709464"/>
+        <c:axId val="-2073677240"/>
+        <c:axId val="-2073674600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131360360"/>
+        <c:axId val="-2073677240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9976,12 +10422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121709464"/>
+        <c:crossAx val="-2073674600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121709464"/>
+        <c:axId val="-2073674600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10015,7 +10461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131360360"/>
+        <c:crossAx val="-2073677240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10037,7 +10483,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10371,11 +10817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133637432"/>
-        <c:axId val="2130772120"/>
+        <c:axId val="-2073712952"/>
+        <c:axId val="-2073723512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133637432"/>
+        <c:axId val="-2073712952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10405,12 +10851,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130772120"/>
+        <c:crossAx val="-2073723512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130772120"/>
+        <c:axId val="-2073723512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10444,7 +10890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133637432"/>
+        <c:crossAx val="-2073712952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10466,7 +10912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11315,11 +11761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124242232"/>
-        <c:axId val="2123792056"/>
+        <c:axId val="-2073755816"/>
+        <c:axId val="-2073762344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124242232"/>
+        <c:axId val="-2073755816"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -11349,12 +11795,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123792056"/>
+        <c:crossAx val="-2073762344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123792056"/>
+        <c:axId val="-2073762344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124242232"/>
+        <c:crossAx val="-2073755816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11396,651 +11842,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Strong Scaling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal (Linear)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.268365039933968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.887629514461706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.450424078082751</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.232417594845928</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.514806738690297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.00903717927262</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.1629383665385</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.06130171543895</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.90040939043013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.319247175737121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.766565120588745</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.201084722112633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.000951210812096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.082506257012168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.419478783828933</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.25737970735138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.91395437022057</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.43869237908631</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.64579109590698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.44516213431884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45595506592644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.201495273611819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.872942082659032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.195886950954388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.329365811261833</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.31778389581465</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.61733986021309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.22679087433796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.77430604551777</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.88953118085947</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=101</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.913305441611979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.802006305054857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.801654011791154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.77116415942367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.28301827272656</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.95288777141297</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.16904243470712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.78297531281257</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.04212390768688</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.58479024421346</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2137821688"/>
-        <c:axId val="2137660744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2137821688"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Processor</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Count (8 ppn)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137660744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2137660744"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137821688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12080,51 +11881,48 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time (ms) per SpMV</a:t>
+              <a:t>Weak Scaling</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (N=100^3 points, with MPI_Alltoallv Collective)</a:t>
+              <a:t> of SpMV + MPI Communication on Itasca </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Np = 4000 points, 3D regular grid; IMPI (MPI_Isend/MPI_Irecv)</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.059415790001916"/>
-          <c:y val="0.086183574879227"/>
-          <c:w val="0.831730184943568"/>
-          <c:h val="0.818460648940621"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$C$6</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=17</c:v>
+                  <c:v>n=17 (Isend/Irecv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -12166,42 +11964,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$C$7:$C$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$F$102:$F$112</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>31.8092</c:v>
+                  <c:v>0.1054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.0789</c:v>
+                  <c:v>0.1082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.8514</c:v>
+                  <c:v>0.11045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.9811</c:v>
+                  <c:v>0.267888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.51561</c:v>
+                  <c:v>0.326463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.23287</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.27062</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.37328</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5856</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.68299</c:v>
+                  <c:v>0.40115</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.451181</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.678164</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.806661</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.18904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.41328</c:v>
+                  <c:v>1.69823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12209,22 +12007,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$E$6</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$G$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=31</c:v>
+                  <c:v>n=31 (Isend/Irecv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -12266,42 +12064,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$E$7:$E$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$G$102:$G$112</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>53.0019</c:v>
+                  <c:v>0.1603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0028</c:v>
+                  <c:v>0.18785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.0799</c:v>
+                  <c:v>0.225725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.6617</c:v>
+                  <c:v>0.459637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.4283</c:v>
+                  <c:v>0.571156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.62684</c:v>
+                  <c:v>0.650622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.07126</c:v>
+                  <c:v>0.729722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.89876</c:v>
+                  <c:v>1.08325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45455</c:v>
+                  <c:v>1.42972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.06669</c:v>
+                  <c:v>1.5279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.66918</c:v>
+                  <c:v>2.14054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12309,22 +12107,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="6"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$G$6</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$H$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=50</c:v>
+                  <c:v>n=50 (Isend/Irecv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -12366,42 +12164,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$G$7:$G$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$H$102:$H$112</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>73.8507</c:v>
+                  <c:v>0.2547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.7232</c:v>
+                  <c:v>0.30775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.5457</c:v>
+                  <c:v>0.406925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.7056</c:v>
+                  <c:v>0.7524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2133</c:v>
+                  <c:v>0.886419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.91594</c:v>
+                  <c:v>1.11194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.52578</c:v>
+                  <c:v>1.13753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.67407</c:v>
+                  <c:v>1.36053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.44322</c:v>
+                  <c:v>1.66659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.48035</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.90961</c:v>
+                  <c:v>1.96882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12409,22 +12204,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="7"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$I$6</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$I$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=101</c:v>
+                  <c:v>n=101 (Isend/Irecv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$A$102:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -12466,107 +12261,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$I$7:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>168.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.0309</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.1105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.3044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.8746</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.6801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.03172</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.19303</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.01938</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.06002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.33263</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:f>'Weak 4000 nodes per proc'!$I$102:$I$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>0.61015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>0.89265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>1.5734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>1.55763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>1.6927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>1.72891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>2.46492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>2.81331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$L$7:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>168.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.3758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.9283</c:v>
+                  <c:v>3.23226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12581,11 +12308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134994440"/>
-        <c:axId val="2135031880"/>
+        <c:axId val="-2021597464"/>
+        <c:axId val="-2129372024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134994440"/>
+        <c:axId val="-2021597464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -12603,31 +12330,27 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processor</a:t>
+                  <a:t>Process Count (8 ppn)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Count (8 ppn)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135031880"/>
+        <c:crossAx val="-2129372024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135031880"/>
+        <c:axId val="-2129372024"/>
         <c:scaling>
-          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12635,7 +12358,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -12643,24 +12366,30 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134994440"/>
+        <c:crossAx val="-2021597464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12710,6 +12439,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12819,7 +12549,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -12919,7 +12649,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -13019,7 +12749,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -13119,7 +12849,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -13226,11 +12956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137931736"/>
-        <c:axId val="2137315528"/>
+        <c:axId val="-2073815752"/>
+        <c:axId val="-2073823048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137931736"/>
+        <c:axId val="-2073815752"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13258,18 +12988,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137315528"/>
+        <c:crossAx val="-2073823048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137315528"/>
+        <c:axId val="-2073823048"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13293,19 +13024,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137931736"/>
+        <c:crossAx val="-2073815752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13679,11 +13412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135140264"/>
-        <c:axId val="2135145816"/>
+        <c:axId val="1788211032"/>
+        <c:axId val="1788216504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135140264"/>
+        <c:axId val="1788211032"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13713,12 +13446,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135145816"/>
+        <c:crossAx val="1788216504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135145816"/>
+        <c:axId val="1788216504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13748,7 +13481,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135140264"/>
+        <c:crossAx val="1788211032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13801,16 +13534,32 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Efficiency</a:t>
+              <a:t>Time (ms) per SpMV</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (N=100^3 points, with MPI_Alltoallv Collective)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.059415790001916"/>
+          <c:y val="0.086183574879227"/>
+          <c:w val="0.831730184943568"/>
+          <c:h val="0.818460648940621"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -13819,7 +13568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$B$104</c:f>
+              <c:f>'Strong 1M nodes'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13830,7 +13579,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -13872,42 +13621,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$B$105:$B$115</c:f>
+              <c:f>'Strong 1M nodes'!$C$7:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>31.8092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.634182519966984</c:v>
+                  <c:v>25.0789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.471907378615427</c:v>
+                  <c:v>16.8514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.306303009760344</c:v>
+                  <c:v>12.9811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26452609967787</c:v>
+                  <c:v>7.51561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.234837710584072</c:v>
+                  <c:v>4.23287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.218891205926135</c:v>
+                  <c:v>2.27062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.180960455988582</c:v>
+                  <c:v>1.37328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0783644598259334</c:v>
+                  <c:v>1.5856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0369148620906838</c:v>
+                  <c:v>1.68299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00910082732005578</c:v>
+                  <c:v>3.41328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13919,7 +13668,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$C$104</c:f>
+              <c:f>'Strong 1M nodes'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13930,7 +13679,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -13972,42 +13721,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$C$105:$C$115</c:f>
+              <c:f>'Strong 1M nodes'!$E$7:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>53.0019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.394208279365718</c:v>
+                  <c:v>30.0028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.132441243413855</c:v>
+                  <c:v>24.0799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0510115784112772</c:v>
+                  <c:v>17.6617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0147669738629076</c:v>
+                  <c:v>10.4283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00415845690869308</c:v>
+                  <c:v>5.62684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00111535145492499</c:v>
+                  <c:v>3.07126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000337284496309244</c:v>
+                  <c:v>1.89876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000194715679740452</c:v>
+                  <c:v>1.45455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000103337708705343</c:v>
+                  <c:v>2.06669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000104789848534386</c:v>
+                  <c:v>3.66918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14019,7 +13768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$D$104</c:f>
+              <c:f>'Strong 1M nodes'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14030,7 +13779,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14072,42 +13821,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$D$105:$D$115</c:f>
+              <c:f>'Strong 1M nodes'!$G$7:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>73.8507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.883282560294372</c:v>
+                  <c:v>50.7232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.550271180528158</c:v>
+                  <c:v>33.5457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.375118901351512</c:v>
+                  <c:v>25.7056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31765664106326</c:v>
+                  <c:v>14.2133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.294358711994654</c:v>
+                  <c:v>7.91594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.269646557927365</c:v>
+                  <c:v>4.52578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.218077768517348</c:v>
+                  <c:v>2.67407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.142338642105806</c:v>
+                  <c:v>2.44322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0500894357341933</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0141066036467957</c:v>
+                  <c:v>2.48035</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.90961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14119,7 +13868,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$E$104</c:f>
+              <c:f>'Strong 1M nodes'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14130,7 +13879,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14172,42 +13921,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$E$105:$E$115</c:f>
+              <c:f>'Strong 1M nodes'!$I$7:$I$17</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>168.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28303513647624</c:v>
+                  <c:v>88.0309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11358036221343</c:v>
+                  <c:v>60.1105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.041653459592958</c:v>
+                  <c:v>44.3044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0122970827460902</c:v>
+                  <c:v>24.8746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00331759333155981</c:v>
+                  <c:v>12.6801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000905409758895436</c:v>
+                  <c:v>7.03172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000279877938338059</c:v>
+                  <c:v>4.19303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000107200608610257</c:v>
+                  <c:v>3.01938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.61577208788741E-5</c:v>
+                  <c:v>3.06002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7604814049119E-5</c:v>
+                  <c:v>5.33263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14222,11 +13971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137192808"/>
-        <c:axId val="2135187976"/>
+        <c:axId val="-2073848296"/>
+        <c:axId val="-2073853896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137192808"/>
+        <c:axId val="-2073848296"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14234,39 +13983,77 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count (8 ppn)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135187976"/>
+        <c:crossAx val="-2073853896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135187976"/>
+        <c:axId val="-2073853896"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137192808"/>
+        <c:crossAx val="-2073848296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14288,10 +14075,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="26"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -14306,38 +14093,42 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cost Comparison on Itasca (Preprocessing vs 4000 SpMV Iterations)</a:t>
+              <a:t>Strong Scaling</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost comparison'!$A$5</c:f>
+              <c:f>'Strong 1M nodes'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Preprocessing (Stencils + Weights)</c:v>
+                  <c:v>Ideal (Linear)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14376,68 +14167,168 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$5:$L$5</c:f>
+              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>521777.8203</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280697.0938</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160314.5859</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103478.5406</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71678.5031</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55215.0078</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47998.4456</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43307.9611</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42613.7064</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40552.8262</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40702.7906</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.268365039933968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.887629514461706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.450424078082751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.232417594845928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.514806738690297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.00903717927262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.1629383665385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.06130171543895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.90040939043013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.319247175737121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost comparison'!$A$8</c:f>
+              <c:f>'Strong 1M nodes'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpMV (4000 iters) [ms]</c:v>
+                  <c:v>n=31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14476,49 +14367,250 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$8:$L$8</c:f>
+              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.766565120588745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.201084722112633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.000951210812096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.082506257012168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.419478783828933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.25737970735138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.91395437022057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.43869237908631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.64579109590698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.44516213431884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>673721.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>352123.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240442.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177218.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99498.2</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50720.5</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28126.9</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16772.1</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12077.5</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12240.1</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21330.5</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.45595506592644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.201495273611819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.872942082659032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.195886950954388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.329365811261833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.31778389581465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.61733986021309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.22679087433796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.77430604551777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.88953118085947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.913305441611979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.802006305054857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.801654011791154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.77116415942367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.28301827272656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.95288777141297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.16904243470712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.78297531281257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.04212390768688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.58479024421346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14528,13 +14620,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2137714520"/>
-        <c:axId val="2137720008"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2137714520"/>
+        <c:axId val="-2073886392"/>
+        <c:axId val="-2073890616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2073886392"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14550,27 +14642,31 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Num Processors (8 ppn)</a:t>
+                  <a:t>Processor</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count (8 ppn)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137720008"/>
+        <c:crossAx val="-2073890616"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2137720008"/>
+        <c:axId val="-2073890616"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14587,27 +14683,26 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137714520"/>
+        <c:crossAx val="-2073886392"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14647,11 +14742,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SpMV Iterations Required to Amortize Cost of Preprocessing (N=1M nodes)</a:t>
+              <a:t>Efficiency</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14661,22 +14757,22 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost comparison'!$A$7</c:f>
+              <c:f>'Strong 1M nodes'!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Iterations required</c:v>
+                  <c:v>n=17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14718,42 +14814,342 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$7:$L$7</c:f>
+              <c:f>'Strong 1M nodes'!$B$105:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.634182519966984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.471907378615427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.306303009760344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26452609967787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.234837710584072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.218891205926135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.180960455988582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0783644598259334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0369148620906838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00910082732005578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$C$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3099.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3189.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2667.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2336.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2882.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4355.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6826.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10329.0</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14114.0</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13253.0</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7633.0</c:v>
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$C$105:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.394208279365718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.132441243413855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0510115784112772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0147669738629076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00415845690869308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00111535145492499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000337284496309244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000194715679740452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000103337708705343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000104789848534386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$D$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$D$105:$D$115</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.883282560294372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.550271180528158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375118901351512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31765664106326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.294358711994654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.269646557927365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.218077768517348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.142338642105806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0500894357341933</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0141066036467957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$E$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$105:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$E$105:$E$115</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28303513647624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11358036221343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.041653459592958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0122970827460902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00331759333155981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000905409758895436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000279877938338059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000107200608610257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.61577208788741E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7604814049119E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14768,11 +15164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137753592"/>
-        <c:axId val="2137759352"/>
+        <c:axId val="-2073915736"/>
+        <c:axId val="-2073922008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137753592"/>
+        <c:axId val="-2073915736"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14780,73 +15176,42 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Processors</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (8 ppn)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137759352"/>
+        <c:crossAx val="-2073922008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137759352"/>
+        <c:axId val="-2073922008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SpMV Iterations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137753592"/>
+        <c:crossAx val="-2073915736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14868,10 +15233,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -14886,16 +15251,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime</a:t>
+              <a:t>Cost Comparison on Itasca (Preprocessing vs 4000 SpMV Iterations)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Summary on Itasca, RBF-FD Regular Grid N=100^3 (3D), 1000 Iterations </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14903,18 +15264,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost comparison'!$A$3</c:f>
+              <c:f>'Cost comparison'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Generate Stencils (Hash HNX=100) [ms]</c:v>
+                  <c:v>Preprocessing (Stencils + Weights)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14964,142 +15325,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$3:$L$3</c:f>
+              <c:f>'Cost comparison'!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>39545.8203</c:v>
+                  <c:v>521777.8203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39296.0938</c:v>
+                  <c:v>280697.0938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39630.5859</c:v>
+                  <c:v>160314.5859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40692.1406</c:v>
+                  <c:v>103478.5406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40050.7031</c:v>
+                  <c:v>71678.5031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39436.0078</c:v>
+                  <c:v>55215.0078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40137.5156</c:v>
+                  <c:v>47998.4456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39387.3711</c:v>
+                  <c:v>43307.9611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40614.3164</c:v>
+                  <c:v>42613.7064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39473.9062</c:v>
+                  <c:v>40552.8262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40202.2266</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cost comparison'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compute 1M Weights (direct) [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>482232.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>241401.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120684.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62786.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31627.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15779.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7860.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3920.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999.39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1078.92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.564</c:v>
+                  <c:v>40702.7906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15107,14 +15368,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Cost comparison'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpMV (4000 iters) [ms]</c:v>
+                  <c:v>SpMV (4000 iters)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15214,12 +15475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="2137799384"/>
-        <c:axId val="2137804920"/>
+        <c:axId val="-2073943720"/>
+        <c:axId val="-2073950648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137799384"/>
+        <c:axId val="-2073943720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15236,18 +15496,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processors (8 ppn)</a:t>
+                  <a:t>Num Processors (8 ppn)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137804920"/>
+        <c:crossAx val="-2073950648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15255,7 +15516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137804920"/>
+        <c:axId val="-2073950648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15278,13 +15539,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137799384"/>
+        <c:crossAx val="-2073943720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -15293,7 +15555,8 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15333,6 +15596,700 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>SpMV Iterations Required to Amortize Cost of Preprocessing (N=1M nodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iterations required</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3099.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3189.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2667.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2336.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4355.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6826.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10329.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14114.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13253.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7633.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2073979736"/>
+        <c:axId val="-2073984072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2073979736"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processors</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (8 ppn)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073984072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2073984072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SpMV Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073979736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summary on Itasca, RBF-FD Regular Grid N=100^3 (3D), 1000 Iterations </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generate Stencils (Hash HNX=100) [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>39545.8203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39296.0938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39630.5859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40692.1406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40050.7031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39436.0078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40137.5156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39387.3711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40614.3164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39473.9062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40202.2266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compute 1M Weights (direct) [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>482232.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241401.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120684.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62786.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31627.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15779.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7860.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3920.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1078.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500.564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpMV (4000 iters)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>673721.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352123.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240442.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177218.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99498.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50720.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28126.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16772.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12077.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12240.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21330.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2074017096"/>
+        <c:axId val="-2074036856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2074017096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processors (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074036856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2074036856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074017096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time (ms) per SpMV</a:t>
             </a:r>
             <a:r>
@@ -15343,6 +16300,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15703,11 +16661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135405032"/>
-        <c:axId val="2137448168"/>
+        <c:axId val="-2074046936"/>
+        <c:axId val="-2074043832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135405032"/>
+        <c:axId val="-2074046936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15735,18 +16693,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137448168"/>
+        <c:crossAx val="-2074043832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137448168"/>
+        <c:axId val="-2074043832"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15770,19 +16729,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135405032"/>
+        <c:crossAx val="-2074046936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15797,7 +16758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16256,11 +17217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135733624"/>
-        <c:axId val="2135268984"/>
+        <c:axId val="-2074072920"/>
+        <c:axId val="-2074077848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135733624"/>
+        <c:axId val="-2074072920"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16288,18 +17249,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135268984"/>
+        <c:crossAx val="-2074077848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135268984"/>
+        <c:axId val="-2074077848"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16323,19 +17285,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135733624"/>
+        <c:crossAx val="-2074072920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17117,11 +18081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140368936"/>
-        <c:axId val="2138919832"/>
+        <c:axId val="1788279576"/>
+        <c:axId val="1788285096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140368936"/>
+        <c:axId val="1788279576"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17151,12 +18115,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138919832"/>
+        <c:crossAx val="1788285096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2138919832"/>
+        <c:axId val="1788285096"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17192,7 +18156,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140368936"/>
+        <c:crossAx val="1788279576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17769,11 +18733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137167416"/>
-        <c:axId val="2135103320"/>
+        <c:axId val="2121636008"/>
+        <c:axId val="2121794648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137167416"/>
+        <c:axId val="2121636008"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17803,12 +18767,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135103320"/>
+        <c:crossAx val="2121794648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135103320"/>
+        <c:axId val="2121794648"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17839,7 +18803,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137167416"/>
+        <c:crossAx val="2121636008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18320,11 +19284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137577720"/>
-        <c:axId val="2135561000"/>
+        <c:axId val="2121609496"/>
+        <c:axId val="2121896680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137577720"/>
+        <c:axId val="2121609496"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18354,12 +19318,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135561000"/>
+        <c:crossAx val="2121896680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135561000"/>
+        <c:axId val="2121896680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18389,7 +19353,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137577720"/>
+        <c:crossAx val="2121609496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18811,11 +19775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137324824"/>
-        <c:axId val="2135890632"/>
+        <c:axId val="2121685368"/>
+        <c:axId val="2121522056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137324824"/>
+        <c:axId val="2121685368"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18845,12 +19809,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135890632"/>
+        <c:crossAx val="2121522056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135890632"/>
+        <c:axId val="2121522056"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18886,7 +19850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137324824"/>
+        <c:crossAx val="2121685368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19456,11 +20420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135558296"/>
-        <c:axId val="2135806584"/>
+        <c:axId val="1788497704"/>
+        <c:axId val="1788503400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135558296"/>
+        <c:axId val="1788497704"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19490,12 +20454,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135806584"/>
+        <c:crossAx val="1788503400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135806584"/>
+        <c:axId val="1788503400"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19531,7 +20495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135558296"/>
+        <c:crossAx val="1788497704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19907,11 +20871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135358152"/>
-        <c:axId val="2135308488"/>
+        <c:axId val="2121923736"/>
+        <c:axId val="2121559992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135358152"/>
+        <c:axId val="2121923736"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19941,12 +20905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135308488"/>
+        <c:crossAx val="2121559992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135308488"/>
+        <c:axId val="2121559992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19976,7 +20940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135358152"/>
+        <c:crossAx val="2121923736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20582,16 +21546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20607,6 +21571,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20834,6 +21830,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21469,8 +22497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="P291" sqref="P291"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21559,10 +22587,10 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -21580,10 +22608,10 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
         <v>0</v>
@@ -21598,10 +22626,10 @@
         <v>6</v>
       </c>
       <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
         <v>49</v>
-      </c>
-      <c r="X6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -21627,27 +22655,27 @@
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <f>$B$7/B7</f>
+        <f t="shared" ref="J7:J17" si="0">$B$7/B7</f>
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <f>C$7/C7</f>
+        <f t="shared" ref="K7:K17" si="1">C$7/C7</f>
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <f>D$7/D7</f>
+        <f t="shared" ref="L7:L17" si="2">D$7/D7</f>
         <v>1</v>
       </c>
       <c r="M7" s="3" t="e">
-        <f>E$7/E7</f>
+        <f t="shared" ref="M7:M17" si="3">E$7/E7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="3">
-        <f>F$7/F7</f>
+        <f t="shared" ref="N7:N17" si="4">F$7/F7</f>
         <v>1</v>
       </c>
       <c r="O7" s="3">
-        <f>G$7/G7</f>
+        <f t="shared" ref="O7:O17" si="5">G$7/G7</f>
         <v>1</v>
       </c>
       <c r="Q7" s="3"/>
@@ -21655,27 +22683,27 @@
         <v>1</v>
       </c>
       <c r="S7" s="3">
-        <f>(($B$1*S$5*$J$1)/(B7*$E$1))*$T$4</f>
+        <f t="shared" ref="S7:S17" si="6">(($B$1*S$5*$J$1)/(B7*$E$1))*$T$4</f>
         <v>0.9059824611621432</v>
       </c>
       <c r="T7" s="3">
-        <f>(($B$1*T$5*$J$1)/(C7*$E$1))*$T$4</f>
+        <f t="shared" ref="T7:T17" si="7">(($B$1*T$5*$J$1)/(C7*$E$1))*$T$4</f>
         <v>1.1065494838757468</v>
       </c>
       <c r="U7" s="3">
-        <f>(($B$1*U$5*$J$1)/(D7*$E$1))*$T$4</f>
+        <f t="shared" ref="U7:U17" si="8">(($B$1*U$5*$J$1)/(D7*$E$1))*$T$4</f>
         <v>1.2108598997256645</v>
       </c>
       <c r="V7" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E7*$E$1))*$T$4</f>
+        <f t="shared" ref="V7:V17" si="9">(($B$1*V$5*$J$1)/(E7*$E$1))*$T$4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W7" s="3">
-        <f>(($B$1*W$5*$J$1)/(F7*$E$1))*$T$4</f>
+        <f t="shared" ref="W7:W17" si="10">(($B$1*W$5*$J$1)/(F7*$E$1))*$T$4</f>
         <v>0.91303891744466592</v>
       </c>
       <c r="X7" s="3">
-        <f>(($B$1*X$5*$J$1)/(G7*$E$1))*$T$4</f>
+        <f t="shared" ref="X7:X17" si="11">(($B$1*X$5*$J$1)/(G7*$E$1))*$T$4</f>
         <v>1.0154433960888398</v>
       </c>
     </row>
@@ -21705,27 +22733,27 @@
         <v>2</v>
       </c>
       <c r="J8" s="3">
-        <f>$B$7/B8</f>
+        <f t="shared" si="0"/>
         <v>1.9061271206092028</v>
       </c>
       <c r="K8" s="3">
-        <f>C$7/C8</f>
+        <f t="shared" si="1"/>
         <v>1.8795832957961032</v>
       </c>
       <c r="L8" s="3">
-        <f>D$7/D8</f>
+        <f t="shared" si="2"/>
         <v>1.7449113286771003</v>
       </c>
       <c r="M8" s="3" t="e">
-        <f>E$7/E8</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" s="3">
-        <f>F$7/F8</f>
+        <f t="shared" si="4"/>
         <v>0.95504893335921404</v>
       </c>
       <c r="O8" s="3">
-        <f>G$7/G8</f>
+        <f t="shared" si="5"/>
         <v>0.85621531181130872</v>
       </c>
       <c r="Q8" s="3"/>
@@ -21733,27 +22761,27 @@
         <v>2</v>
       </c>
       <c r="S8" s="3">
-        <f>(($B$1*S$5*$J$1)/(B8*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>1.7269177400174347</v>
       </c>
       <c r="T8" s="3">
-        <f>(($B$1*T$5*$J$1)/(C8*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>2.0798519258646531</v>
       </c>
       <c r="U8" s="3">
-        <f>(($B$1*U$5*$J$1)/(D8*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>2.1128431564721297</v>
       </c>
       <c r="V8" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E8*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W8" s="3">
-        <f>(($B$1*W$5*$J$1)/(F8*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>0.87199684422097978</v>
       </c>
       <c r="X8" s="3">
-        <f>(($B$1*X$5*$J$1)/(G8*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>0.86943818400894024</v>
       </c>
     </row>
@@ -21780,27 +22808,27 @@
         <v>4</v>
       </c>
       <c r="J9" s="3">
-        <f>$B$7/B9</f>
+        <f t="shared" si="0"/>
         <v>2.3948076875140214</v>
       </c>
       <c r="K9" s="3">
-        <f>C$7/C9</f>
+        <f t="shared" si="1"/>
         <v>2.5248414678689146</v>
       </c>
       <c r="L9" s="3">
-        <f>D$7/D9</f>
+        <f t="shared" si="2"/>
         <v>2.1846410188515959</v>
       </c>
       <c r="M9" s="3" t="e">
-        <f>E$7/E9</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" s="3">
-        <f>F$7/F9</f>
+        <f t="shared" si="4"/>
         <v>1.4988109977792188</v>
       </c>
       <c r="O9" s="3">
-        <f>G$7/G9</f>
+        <f t="shared" si="5"/>
         <v>1.3698983159198512</v>
       </c>
       <c r="Q9" s="3"/>
@@ -21808,27 +22836,27 @@
         <v>4</v>
       </c>
       <c r="S9" s="3">
-        <f>(($B$1*S$5*$J$1)/(B9*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>2.169653762743974</v>
       </c>
       <c r="T9" s="3">
-        <f>(($B$1*T$5*$J$1)/(C9*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>2.7938620231384301</v>
       </c>
       <c r="U9" s="3">
-        <f>(($B$1*U$5*$J$1)/(D9*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>2.6452942050232173</v>
       </c>
       <c r="V9" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E9*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W9" s="3">
-        <f>(($B$1*W$5*$J$1)/(F9*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>1.3684727708664977</v>
       </c>
       <c r="X9" s="3">
-        <f>(($B$1*X$5*$J$1)/(G9*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>1.3910541982140361</v>
       </c>
     </row>
@@ -21855,27 +22883,27 @@
         <v>8</v>
       </c>
       <c r="J10" s="3">
-        <f>$B$7/B10</f>
+        <f t="shared" si="0"/>
         <v>3.1705983907329984</v>
       </c>
       <c r="K10" s="3">
-        <f>C$7/C10</f>
+        <f t="shared" si="1"/>
         <v>3.3346265056739757</v>
       </c>
       <c r="L10" s="3">
-        <f>D$7/D10</f>
+        <f t="shared" si="2"/>
         <v>3.1350800285452136</v>
       </c>
       <c r="M10" s="3" t="e">
-        <f>E$7/E10</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="3">
-        <f>F$7/F10</f>
+        <f t="shared" si="4"/>
         <v>3.2189972501092146</v>
       </c>
       <c r="O10" s="3">
-        <f>G$7/G10</f>
+        <f t="shared" si="5"/>
         <v>2.8887802946368009</v>
       </c>
       <c r="Q10" s="3"/>
@@ -21883,27 +22911,27 @@
         <v>8</v>
       </c>
       <c r="S10" s="3">
-        <f>(($B$1*S$5*$J$1)/(B10*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>2.8725065333930129</v>
       </c>
       <c r="T10" s="3">
-        <f>(($B$1*T$5*$J$1)/(C10*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>3.6899292387719229</v>
       </c>
       <c r="U10" s="3">
-        <f>(($B$1*U$5*$J$1)/(D10*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>3.7961426889961909</v>
       </c>
       <c r="V10" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E10*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W10" s="3">
-        <f>(($B$1*W$5*$J$1)/(F10*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>2.939069764497074</v>
       </c>
       <c r="X10" s="3">
-        <f>(($B$1*X$5*$J$1)/(G10*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>2.9333928729405123</v>
       </c>
     </row>
@@ -21933,27 +22961,27 @@
         <v>16</v>
       </c>
       <c r="J11" s="3">
-        <f>$B$7/B11</f>
+        <f t="shared" si="0"/>
         <v>5.3916331405361611</v>
       </c>
       <c r="K11" s="3">
-        <f>C$7/C11</f>
+        <f t="shared" si="1"/>
         <v>5.6404729661643875</v>
       </c>
       <c r="L11" s="3">
-        <f>D$7/D11</f>
+        <f t="shared" si="2"/>
         <v>6.280264450166813</v>
       </c>
       <c r="M11" s="3" t="e">
-        <f>E$7/E11</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3">
-        <f>F$7/F11</f>
+        <f t="shared" si="4"/>
         <v>5.3001230097782353</v>
       </c>
       <c r="O11" s="3">
-        <f>G$7/G11</f>
+        <f t="shared" si="5"/>
         <v>4.7524100602255164</v>
       </c>
       <c r="Q11" s="3"/>
@@ -21961,27 +22989,27 @@
         <v>16</v>
       </c>
       <c r="S11" s="3">
-        <f>(($B$1*S$5*$J$1)/(B11*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>4.8847250623463259</v>
       </c>
       <c r="T11" s="3">
-        <f>(($B$1*T$5*$J$1)/(C11*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>6.241462449524307</v>
       </c>
       <c r="U11" s="3">
-        <f>(($B$1*U$5*$J$1)/(D11*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>7.6045203823796443</v>
       </c>
       <c r="V11" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E11*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W11" s="3">
-        <f>(($B$1*W$5*$J$1)/(F11*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>4.8392185751714845</v>
       </c>
       <c r="X11" s="3">
-        <f>(($B$1*X$5*$J$1)/(G11*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>4.8258034111621662</v>
       </c>
     </row>
@@ -22008,27 +23036,27 @@
         <v>32</v>
       </c>
       <c r="J12" s="3">
-        <f>$B$7/B12</f>
+        <f t="shared" si="0"/>
         <v>9.3825954794880104</v>
       </c>
       <c r="K12" s="3">
-        <f>C$7/C12</f>
+        <f t="shared" si="1"/>
         <v>10.812673733804475</v>
       </c>
       <c r="L12" s="3">
-        <f>D$7/D12</f>
+        <f t="shared" si="2"/>
         <v>11.657798241018996</v>
       </c>
       <c r="M12" s="3" t="e">
-        <f>E$7/E12</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="3">
-        <f>F$7/F12</f>
+        <f t="shared" si="4"/>
         <v>9.5360992322504803</v>
       </c>
       <c r="O12" s="3">
-        <f>G$7/G12</f>
+        <f t="shared" si="5"/>
         <v>8.5071303182745783</v>
       </c>
       <c r="Q12" s="3"/>
@@ -22036,27 +23064,27 @@
         <v>32</v>
       </c>
       <c r="S12" s="3">
-        <f>(($B$1*S$5*$J$1)/(B12*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>8.5004669445953471</v>
       </c>
       <c r="T12" s="3">
-        <f>(($B$1*T$5*$J$1)/(C12*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>11.964758539458186</v>
       </c>
       <c r="U12" s="3">
-        <f>(($B$1*U$5*$J$1)/(D12*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>14.115960409142291</v>
       </c>
       <c r="V12" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E12*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W12" s="3">
-        <f>(($B$1*W$5*$J$1)/(F12*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>8.7068297196588897</v>
       </c>
       <c r="X12" s="3">
-        <f>(($B$1*X$5*$J$1)/(G12*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>8.6385093013590701</v>
       </c>
     </row>
@@ -22083,27 +23111,27 @@
         <v>64</v>
       </c>
       <c r="J13" s="3">
-        <f>$B$7/B13</f>
+        <f t="shared" si="0"/>
         <v>17.906810403274847</v>
       </c>
       <c r="K13" s="3">
-        <f>C$7/C13</f>
+        <f t="shared" si="1"/>
         <v>19.505103645218043</v>
       </c>
       <c r="L13" s="3">
-        <f>D$7/D13</f>
+        <f t="shared" si="2"/>
         <v>21.635561240805885</v>
       </c>
       <c r="M13" s="3" t="e">
-        <f>E$7/E13</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="3">
-        <f>F$7/F13</f>
+        <f t="shared" si="4"/>
         <v>18.080328302195436</v>
       </c>
       <c r="O13" s="3">
-        <f>G$7/G13</f>
+        <f t="shared" si="5"/>
         <v>17.055605507199875</v>
       </c>
       <c r="Q13" s="3"/>
@@ -22111,27 +23139,27 @@
         <v>64</v>
       </c>
       <c r="S13" s="3">
-        <f>(($B$1*S$5*$J$1)/(B13*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>16.223256160722816</v>
       </c>
       <c r="T13" s="3">
-        <f>(($B$1*T$5*$J$1)/(C13*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>21.583362371558973</v>
       </c>
       <c r="U13" s="3">
-        <f>(($B$1*U$5*$J$1)/(D13*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>26.197633514550692</v>
       </c>
       <c r="V13" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E13*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W13" s="3">
-        <f>(($B$1*W$5*$J$1)/(F13*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>16.508043380080679</v>
       </c>
       <c r="X13" s="3">
-        <f>(($B$1*X$5*$J$1)/(G13*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>17.319001978582559</v>
       </c>
     </row>
@@ -22158,27 +23186,27 @@
         <v>128</v>
       </c>
       <c r="J14" s="3">
-        <f>$B$7/B14</f>
+        <f t="shared" si="0"/>
         <v>29.599590231804022</v>
       </c>
       <c r="K14" s="3">
-        <f>C$7/C14</f>
+        <f t="shared" si="1"/>
         <v>32.045279688789407</v>
       </c>
       <c r="L14" s="3">
-        <f>D$7/D14</f>
+        <f t="shared" si="2"/>
         <v>34.462305834218817</v>
       </c>
       <c r="M14" s="3" t="e">
-        <f>E$7/E14</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="3">
-        <f>F$7/F14</f>
+        <f t="shared" si="4"/>
         <v>31.928192547129921</v>
       </c>
       <c r="O14" s="3">
-        <f>G$7/G14</f>
+        <f t="shared" si="5"/>
         <v>30.531438392149528</v>
       </c>
       <c r="Q14" s="3"/>
@@ -22186,27 +23214,27 @@
         <v>128</v>
       </c>
       <c r="S14" s="3">
-        <f>(($B$1*S$5*$J$1)/(B14*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>26.816709607600735</v>
       </c>
       <c r="T14" s="3">
-        <f>(($B$1*T$5*$J$1)/(C14*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>35.459687700283872</v>
       </c>
       <c r="U14" s="3">
-        <f>(($B$1*U$5*$J$1)/(D14*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>41.729024186737384</v>
       </c>
       <c r="V14" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E14*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W14" s="3">
-        <f>(($B$1*W$5*$J$1)/(F14*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>29.151682359196357</v>
       </c>
       <c r="X14" s="3">
-        <f>(($B$1*X$5*$J$1)/(G14*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>31.002947488401503</v>
       </c>
     </row>
@@ -22236,27 +23264,27 @@
         <v>256</v>
       </c>
       <c r="J15" s="3">
-        <f>$B$7/B15</f>
+        <f t="shared" si="0"/>
         <v>39.268662168824896</v>
       </c>
       <c r="K15" s="3">
-        <f>C$7/C15</f>
+        <f t="shared" si="1"/>
         <v>50.032483104425552</v>
       </c>
       <c r="L15" s="3">
-        <f>D$7/D15</f>
+        <f t="shared" si="2"/>
         <v>57.687401515719962</v>
       </c>
       <c r="M15" s="3" t="e">
-        <f>E$7/E15</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="3">
-        <f>F$7/F15</f>
+        <f t="shared" si="4"/>
         <v>48.998997712729043</v>
       </c>
       <c r="O15" s="3">
-        <f>G$7/G15</f>
+        <f t="shared" si="5"/>
         <v>45.512801367249068</v>
       </c>
       <c r="Q15" s="3"/>
@@ -22264,27 +23292,27 @@
         <v>256</v>
       </c>
       <c r="S15" s="3">
-        <f>(($B$1*S$5*$J$1)/(B15*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>35.576719198256725</v>
       </c>
       <c r="T15" s="3">
-        <f>(($B$1*T$5*$J$1)/(C15*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>55.363418356224116</v>
       </c>
       <c r="U15" s="3">
-        <f>(($B$1*U$5*$J$1)/(D15*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>69.851361214758825</v>
       </c>
       <c r="V15" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E15*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W15" s="3">
-        <f>(($B$1*W$5*$J$1)/(F15*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>44.737991827503798</v>
       </c>
       <c r="X15" s="3">
-        <f>(($B$1*X$5*$J$1)/(G15*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>46.215673585876182</v>
       </c>
     </row>
@@ -22311,27 +23339,27 @@
         <v>512</v>
       </c>
       <c r="J16" s="3">
-        <f>$B$7/B16</f>
+        <f t="shared" si="0"/>
         <v>32.235105135899715</v>
       </c>
       <c r="K16" s="3">
-        <f>C$7/C16</f>
+        <f t="shared" si="1"/>
         <v>63.098926901155579</v>
       </c>
       <c r="L16" s="3">
-        <f>D$7/D16</f>
+        <f t="shared" si="2"/>
         <v>80.672910212657371</v>
       </c>
       <c r="M16" s="3" t="e">
-        <f>E$7/E16</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3">
-        <f>F$7/F16</f>
+        <f t="shared" si="4"/>
         <v>79.767800643254972</v>
       </c>
       <c r="O16" s="3">
-        <f>G$7/G16</f>
+        <f t="shared" si="5"/>
         <v>70.839510126497274</v>
       </c>
       <c r="Q16" s="3"/>
@@ -22339,27 +23367,27 @@
         <v>512</v>
       </c>
       <c r="S16" s="3">
-        <f>(($B$1*S$5*$J$1)/(B16*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>29.204439886842867</v>
       </c>
       <c r="T16" s="3">
-        <f>(($B$1*T$5*$J$1)/(C16*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>69.822084995587176</v>
       </c>
       <c r="U16" s="3">
-        <f>(($B$1*U$5*$J$1)/(D16*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>97.683591970675849</v>
       </c>
       <c r="V16" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E16*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W16" s="3">
-        <f>(($B$1*W$5*$J$1)/(F16*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>72.831106346259446</v>
       </c>
       <c r="X16" s="3">
-        <f>(($B$1*X$5*$J$1)/(G16*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>71.93351274012015</v>
       </c>
     </row>
@@ -22386,27 +23414,27 @@
         <v>1024</v>
       </c>
       <c r="J17" s="3">
-        <f>$B$7/B17</f>
+        <f t="shared" si="0"/>
         <v>35.305115148842539</v>
       </c>
       <c r="K17" s="3">
-        <f>C$7/C17</f>
+        <f t="shared" si="1"/>
         <v>60.564852176253723</v>
       </c>
       <c r="L17" s="3">
-        <f>D$7/D17</f>
+        <f t="shared" si="2"/>
         <v>67.576956807498604</v>
       </c>
       <c r="M17" s="3" t="e">
-        <f>E$7/E17</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="3">
-        <f>F$7/F17</f>
+        <f t="shared" si="4"/>
         <v>79.812462063335914</v>
       </c>
       <c r="O17" s="3">
-        <f>G$7/G17</f>
+        <f t="shared" si="5"/>
         <v>80.758201185940649</v>
       </c>
       <c r="Q17" s="3"/>
@@ -22414,27 +23442,27 @@
         <v>1024</v>
       </c>
       <c r="S17" s="3">
-        <f>(($B$1*S$5*$J$1)/(B17*$E$1))*$T$4</f>
+        <f t="shared" si="6"/>
         <v>31.985815114161234</v>
       </c>
       <c r="T17" s="3">
-        <f>(($B$1*T$5*$J$1)/(C17*$E$1))*$T$4</f>
+        <f t="shared" si="7"/>
         <v>67.018005916644455</v>
       </c>
       <c r="U17" s="3">
-        <f>(($B$1*U$5*$J$1)/(D17*$E$1))*$T$4</f>
+        <f t="shared" si="8"/>
         <v>81.82622714369333</v>
       </c>
       <c r="V17" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E17*$E$1))*$T$4</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W17" s="3">
-        <f>(($B$1*W$5*$J$1)/(F17*$E$1))*$T$4</f>
+        <f t="shared" si="10"/>
         <v>72.871883960901698</v>
       </c>
       <c r="X17" s="3">
-        <f>(($B$1*X$5*$J$1)/(G17*$E$1))*$T$4</f>
+        <f t="shared" si="11"/>
         <v>82.005382074277335</v>
       </c>
     </row>
@@ -22488,7 +23516,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K56" t="s">
         <v>0</v>
@@ -22503,7 +23531,7 @@
         <v>6</v>
       </c>
       <c r="O56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S56" t="s">
         <v>0</v>
@@ -22518,7 +23546,7 @@
         <v>6</v>
       </c>
       <c r="W56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -22544,46 +23572,46 @@
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" ref="K57:K67" si="0">$B$7/B57</f>
+        <f t="shared" ref="K57:K67" si="12">$B$7/B57</f>
         <v>1.0000520467379708</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" ref="L57:L67" si="1">C$7/C57</f>
+        <f t="shared" ref="L57:L67" si="13">C$7/C57</f>
         <v>1.0000348597548487</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" ref="M57:M67" si="2">D$7/D57</f>
+        <f t="shared" ref="M57:M67" si="14">D$7/D57</f>
         <v>1.0000236501667337</v>
       </c>
       <c r="N57" s="3" t="e">
-        <f t="shared" ref="N57:N67" si="3">E$7/E57</f>
+        <f t="shared" ref="N57:N67" si="15">E$7/E57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" ref="O57:O67" si="4">F$7/F57</f>
+        <f t="shared" ref="O57:O67" si="16">F$7/F57</f>
         <v>1.0000524521374246</v>
       </c>
       <c r="R57">
         <v>1</v>
       </c>
       <c r="S57" s="3">
-        <f>(($B$1*S$5*$J$1)/(B57*$E$1))*$T$4</f>
+        <f t="shared" ref="S57:S67" si="17">(($B$1*S$5*$J$1)/(B57*$E$1))*$T$4</f>
         <v>0.9060296145939053</v>
       </c>
       <c r="T57" s="3">
-        <f>(($B$1*T$5*$J$1)/(C57*$E$1))*$T$4</f>
+        <f t="shared" ref="T57:T67" si="18">(($B$1*T$5*$J$1)/(C57*$E$1))*$T$4</f>
         <v>1.1065880579194824</v>
       </c>
       <c r="U57" s="3">
-        <f>(($B$1*U$5*$J$1)/(D57*$E$1))*$T$4</f>
+        <f t="shared" ref="U57:U67" si="19">(($B$1*U$5*$J$1)/(D57*$E$1))*$T$4</f>
         <v>1.2108885367641844</v>
       </c>
       <c r="V57" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E57*$E$1))*$T$4</f>
+        <f t="shared" ref="V57:V67" si="20">(($B$1*V$5*$J$1)/(E57*$E$1))*$T$4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W57" s="3">
-        <f>(($B$1*W$5*$J$1)/(F57*$E$1))*$T$4</f>
+        <f t="shared" ref="W57:W67" si="21">(($B$1*W$5*$J$1)/(F57*$E$1))*$T$4</f>
         <v>0.9130868082874376</v>
       </c>
     </row>
@@ -22610,46 +23638,46 @@
         <v>2</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>2.351256804856821</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.2318726416929242</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.0954068200823861</v>
       </c>
       <c r="N58" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>2.3394869718331464</v>
       </c>
       <c r="R58">
         <v>2</v>
       </c>
       <c r="S58" s="3">
-        <f>(($B$1*S$5*$J$1)/(B58*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>2.1301974268884196</v>
       </c>
       <c r="T58" s="3">
-        <f>(($B$1*T$5*$J$1)/(C58*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>2.4696775197417047</v>
       </c>
       <c r="U58" s="3">
-        <f>(($B$1*U$5*$J$1)/(D58*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>2.5372440920494319</v>
       </c>
       <c r="V58" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E58*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W58" s="3">
-        <f>(($B$1*W$5*$J$1)/(F58*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>2.1360426521384359</v>
       </c>
     </row>
@@ -22676,46 +23704,46 @@
         <v>4</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>3.3975717736926683</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3.1972866829294793</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.7887221764220942</v>
       </c>
       <c r="N59" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.2815117558554716</v>
       </c>
       <c r="R59">
         <v>4</v>
       </c>
       <c r="S59" s="3">
-        <f>(($B$1*S$5*$J$1)/(B59*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>3.0781404375051116</v>
       </c>
       <c r="T59" s="3">
-        <f>(($B$1*T$5*$J$1)/(C59*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>3.5379559287984139</v>
       </c>
       <c r="U59" s="3">
-        <f>(($B$1*U$5*$J$1)/(D59*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>3.3767518549051938</v>
       </c>
       <c r="V59" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E59*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="3">
-        <f>(($B$1*W$5*$J$1)/(F59*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>3.9091868585928911</v>
       </c>
     </row>
@@ -22742,46 +23770,46 @@
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>4.2372502915046057</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>4.1870210902722036</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.9622553107752281</v>
       </c>
       <c r="N60" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.3181174765307393</v>
       </c>
       <c r="R60">
         <v>8</v>
       </c>
       <c r="S60" s="3">
-        <f>(($B$1*S$5*$J$1)/(B60*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>3.8388744476573509</v>
       </c>
       <c r="T60" s="3">
-        <f>(($B$1*T$5*$J$1)/(C60*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>4.633146026417573</v>
       </c>
       <c r="U60" s="3">
-        <f>(($B$1*U$5*$J$1)/(D60*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>4.7977360682927754</v>
       </c>
       <c r="V60" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E60*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W60" s="3">
-        <f>(($B$1*W$5*$J$1)/(F60*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>3.9426093061705187</v>
       </c>
     </row>
@@ -22811,46 +23839,46 @@
         <v>16</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>9.0075709631296448</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>8.5635552902106387</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>8.5665590376701495</v>
       </c>
       <c r="N61" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9.0787233789269433</v>
       </c>
       <c r="R61">
         <v>16</v>
       </c>
       <c r="S61" s="3">
-        <f>(($B$1*S$5*$J$1)/(B61*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>8.1607013102688502</v>
       </c>
       <c r="T61" s="3">
-        <f>(($B$1*T$5*$J$1)/(C61*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>9.4759976865240034</v>
       </c>
       <c r="U61" s="3">
-        <f>(($B$1*U$5*$J$1)/(D61*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>10.372902817347263</v>
       </c>
       <c r="V61" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E61*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W61" s="3">
-        <f>(($B$1*W$5*$J$1)/(F61*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>8.2892277656750366</v>
       </c>
     </row>
@@ -22877,46 +23905,46 @@
         <v>32</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>17.652314313997049</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>17.274786981001416</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>17.199804751057599</v>
       </c>
       <c r="N62" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>18.008092118390028</v>
       </c>
       <c r="R62">
         <v>32</v>
       </c>
       <c r="S62" s="3">
-        <f>(($B$1*S$5*$J$1)/(B62*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>15.992687167402776</v>
       </c>
       <c r="T62" s="3">
-        <f>(($B$1*T$5*$J$1)/(C62*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>19.115406617890585</v>
       </c>
       <c r="U62" s="3">
-        <f>(($B$1*U$5*$J$1)/(D62*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>20.826553856166612</v>
       </c>
       <c r="V62" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E62*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W62" s="3">
-        <f>(($B$1*W$5*$J$1)/(F62*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>16.442088933018653</v>
       </c>
     </row>
@@ -22943,46 +23971,46 @@
         <v>64</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>36.461708516967043</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>34.665061543968932</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>34.889336057601561</v>
       </c>
       <c r="N63" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>37.669884689570686</v>
       </c>
       <c r="R63">
         <v>64</v>
       </c>
       <c r="S63" s="3">
-        <f>(($B$1*S$5*$J$1)/(B63*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>33.033668420378476</v>
       </c>
       <c r="T63" s="3">
-        <f>(($B$1*T$5*$J$1)/(C63*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>38.358605959999821</v>
       </c>
       <c r="U63" s="3">
-        <f>(($B$1*U$5*$J$1)/(D63*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>42.246097960202441</v>
       </c>
       <c r="V63" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E63*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W63" s="3">
-        <f>(($B$1*W$5*$J$1)/(F63*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>34.394070737231019</v>
       </c>
     </row>
@@ -23009,46 +24037,46 @@
         <v>128</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>72.017353579175705</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>69.601254344410947</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>70.737567622389463</v>
       </c>
       <c r="N64" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>75.181017443723164</v>
       </c>
       <c r="R64">
         <v>128</v>
       </c>
       <c r="S64" s="3">
-        <f>(($B$1*S$5*$J$1)/(B64*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>65.246459242045887</v>
       </c>
       <c r="T64" s="3">
-        <f>(($B$1*T$5*$J$1)/(C64*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>77.017232071912517</v>
       </c>
       <c r="U64" s="3">
-        <f>(($B$1*U$5*$J$1)/(D64*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>85.653284038083925</v>
       </c>
       <c r="V64" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E64*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W64" s="3">
-        <f>(($B$1*W$5*$J$1)/(F64*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>68.643194779205544</v>
       </c>
     </row>
@@ -23075,46 +24103,46 @@
         <v>256</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>148.69026891081447</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>138.57212725746754</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>141.09187372003686</v>
       </c>
       <c r="N65" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>153.83110327584973</v>
       </c>
       <c r="R65">
         <v>256</v>
       </c>
       <c r="S65" s="3">
-        <f>(($B$1*S$5*$J$1)/(B65*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>134.71077577868058</v>
       </c>
       <c r="T65" s="3">
-        <f>(($B$1*T$5*$J$1)/(C65*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>153.33691589631502</v>
       </c>
       <c r="U65" s="3">
-        <f>(($B$1*U$5*$J$1)/(D65*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>170.84249206474999</v>
       </c>
       <c r="V65" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E65*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W65" s="3">
-        <f>(($B$1*W$5*$J$1)/(F65*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>140.45378400430042</v>
       </c>
     </row>
@@ -23141,46 +24169,46 @@
         <v>512</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>341.8980595912775</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>286.39975839984822</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>281.54140657511442</v>
       </c>
       <c r="N66" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>343.09030503564111</v>
       </c>
       <c r="R66">
         <v>512</v>
       </c>
       <c r="S66" s="3">
-        <f>(($B$1*S$5*$J$1)/(B66*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>309.75364549506668</v>
       </c>
       <c r="T66" s="3">
-        <f>(($B$1*T$5*$J$1)/(C66*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>316.91550483949061</v>
       </c>
       <c r="U66" s="3">
-        <f>(($B$1*U$5*$J$1)/(D66*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>340.90719933416563</v>
       </c>
       <c r="V66" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E66*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W66" s="3">
-        <f>(($B$1*W$5*$J$1)/(F66*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>313.25480069550196</v>
       </c>
     </row>
@@ -23207,46 +24235,46 @@
         <v>1024</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>820.92198581560285</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>694.21875094529105</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>604.80558977448879</v>
       </c>
       <c r="N67" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>969.66306420851868</v>
       </c>
       <c r="R67">
         <v>1024</v>
       </c>
       <c r="S67" s="3">
-        <f>(($B$1*S$5*$J$1)/(B67*$E$1))*$T$4</f>
+        <f t="shared" si="17"/>
         <v>743.74092113133395</v>
       </c>
       <c r="T67" s="3">
-        <f>(($B$1*T$5*$J$1)/(C67*$E$1))*$T$4</f>
+        <f t="shared" si="18"/>
         <v>768.18740055537751</v>
       </c>
       <c r="U67" s="3">
-        <f>(($B$1*U$5*$J$1)/(D67*$E$1))*$T$4</f>
+        <f t="shared" si="19"/>
         <v>732.33483578785888</v>
       </c>
       <c r="V67" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E67*$E$1))*$T$4</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W67" s="3">
-        <f>(($B$1*W$5*$J$1)/(F67*$E$1))*$T$4</f>
+        <f t="shared" si="21"/>
         <v>885.34011443102361</v>
       </c>
     </row>
@@ -23303,10 +24331,10 @@
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K105" t="s">
         <v>0</v>
@@ -23321,10 +24349,10 @@
         <v>6</v>
       </c>
       <c r="O105" t="s">
+        <v>47</v>
+      </c>
+      <c r="P105" t="s">
         <v>49</v>
-      </c>
-      <c r="P105" t="s">
-        <v>51</v>
       </c>
       <c r="S105" t="s">
         <v>0</v>
@@ -23339,10 +24367,10 @@
         <v>6</v>
       </c>
       <c r="W105" t="s">
+        <v>47</v>
+      </c>
+      <c r="X105" t="s">
         <v>49</v>
-      </c>
-      <c r="X105" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -23412,11 +24440,11 @@
         <v>1</v>
       </c>
       <c r="N107" s="6" t="e">
-        <f t="shared" ref="N107:N113" si="5">$E$107/E107</f>
+        <f t="shared" ref="N107:N113" si="22">$E$107/E107</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O107" s="6">
-        <f t="shared" ref="O107:P116" si="6">$F$107/F107</f>
+        <f t="shared" ref="O107:O116" si="23">$F$107/F107</f>
         <v>1</v>
       </c>
       <c r="P107" s="6">
@@ -23427,27 +24455,27 @@
         <v>2</v>
       </c>
       <c r="S107" s="3">
-        <f>(($B$1*S$5*$J$1)/(B107*$E$1))*$T$4</f>
+        <f t="shared" ref="S107:S116" si="24">(($B$1*S$5*$J$1)/(B107*$E$1))*$T$4</f>
         <v>9.1240483771636729</v>
       </c>
       <c r="T107" s="3">
-        <f>(($B$1*T$5*$J$1)/(C107*$E$1))*$T$4</f>
+        <f t="shared" ref="T107:T116" si="25">(($B$1*T$5*$J$1)/(C107*$E$1))*$T$4</f>
         <v>13.179166753160485</v>
       </c>
       <c r="U107" s="3">
-        <f>(($B$1*U$5*$J$1)/(D107*$E$1))*$T$4</f>
+        <f t="shared" ref="U107:U116" si="26">(($B$1*U$5*$J$1)/(D107*$E$1))*$T$4</f>
         <v>12.633358110671423</v>
       </c>
       <c r="V107" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E107*$E$1))*$T$4</f>
+        <f t="shared" ref="V107:V116" si="27">(($B$1*V$5*$J$1)/(E107*$E$1))*$T$4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W107" s="3">
-        <f>(($B$1*W$5*$J$1)/(F107*$E$1))*$T$4</f>
+        <f t="shared" ref="W107:W116" si="28">(($B$1*W$5*$J$1)/(F107*$E$1))*$T$4</f>
         <v>1.4735917635294926</v>
       </c>
       <c r="X107" s="3">
-        <f>(($B$1*X$5*$J$1)/(G107*$E$1))*$T$4</f>
+        <f t="shared" ref="X107:X116" si="29">(($B$1*X$5*$J$1)/(G107*$E$1))*$T$4</f>
         <v>1.4657316396757085</v>
       </c>
     </row>
@@ -23474,54 +24502,54 @@
         <v>4</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" ref="K108:K116" si="7">$B$107/B108</f>
+        <f t="shared" ref="K108:K116" si="30">$B$107/B108</f>
         <v>0.80594556063046174</v>
       </c>
       <c r="L108" s="6">
-        <f t="shared" ref="L108:L116" si="8">$C$107/C108</f>
+        <f t="shared" ref="L108:L116" si="31">$C$107/C108</f>
         <v>1.0081935477119806</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" ref="M108:M116" si="9">$D$107/D108</f>
+        <f t="shared" ref="M108:M116" si="32">$D$107/D108</f>
         <v>0.96679071320797472</v>
       </c>
       <c r="N108" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.4289461906461114</v>
       </c>
       <c r="P108" s="6">
-        <f t="shared" ref="P108:P116" si="10">$G$107/G108</f>
+        <f t="shared" ref="P108:P116" si="33">$G$107/G108</f>
         <v>1.4867897660589937</v>
       </c>
       <c r="R108">
         <v>4</v>
       </c>
       <c r="S108" s="3">
-        <f>(($B$1*S$5*$J$1)/(B108*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>7.3534862845526305</v>
       </c>
       <c r="T108" s="3">
-        <f>(($B$1*T$5*$J$1)/(C108*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>13.287150884756654</v>
       </c>
       <c r="U108" s="3">
-        <f>(($B$1*U$5*$J$1)/(D108*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>12.213813298027777</v>
       </c>
       <c r="V108" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E108*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W108" s="3">
-        <f>(($B$1*W$5*$J$1)/(F108*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>2.105683337062954</v>
       </c>
       <c r="X108" s="3">
-        <f>(($B$1*X$5*$J$1)/(G108*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>2.179234801658712</v>
       </c>
     </row>
@@ -23548,54 +24576,54 @@
         <v>8</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.2511291261260524</v>
       </c>
       <c r="L109" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>1.375791630669932</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>1.4396897008019467</v>
       </c>
       <c r="N109" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>7.839089898638</v>
       </c>
       <c r="P109" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>7.9146750855914769</v>
       </c>
       <c r="R109">
         <v>8</v>
       </c>
       <c r="S109" s="3">
-        <f>(($B$1*S$5*$J$1)/(B109*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>11.415362672852611</v>
       </c>
       <c r="T109" s="3">
-        <f>(($B$1*T$5*$J$1)/(C109*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>18.131787318201617</v>
       </c>
       <c r="U109" s="3">
-        <f>(($B$1*U$5*$J$1)/(D109*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>18.18811555847639</v>
       </c>
       <c r="V109" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E109*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W109" s="3">
-        <f>(($B$1*W$5*$J$1)/(F109*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>11.551618308200204</v>
       </c>
       <c r="X109" s="3">
-        <f>(($B$1*X$5*$J$1)/(G109*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>11.600789690704474</v>
       </c>
     </row>
@@ -23625,54 +24653,54 @@
         <v>16</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.3343065948667741</v>
       </c>
       <c r="L110" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>1.3879609021039969</v>
       </c>
       <c r="M110" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>2.2562980180380805</v>
       </c>
       <c r="N110" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O110" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>7.8938290372696747</v>
       </c>
       <c r="P110" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>7.9926393889430996</v>
       </c>
       <c r="R110">
         <v>16</v>
       </c>
       <c r="S110" s="3">
-        <f>(($B$1*S$5*$J$1)/(B110*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>12.174277921532974</v>
       </c>
       <c r="T110" s="3">
-        <f>(($B$1*T$5*$J$1)/(C110*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>18.292168175695629</v>
       </c>
       <c r="U110" s="3">
-        <f>(($B$1*U$5*$J$1)/(D110*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>28.504620866273246</v>
       </c>
       <c r="V110" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E110*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W110" s="3">
-        <f>(($B$1*W$5*$J$1)/(F110*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>11.632281452030538</v>
       </c>
       <c r="X110" s="3">
-        <f>(($B$1*X$5*$J$1)/(G110*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>11.715064436892222</v>
       </c>
     </row>
@@ -23699,54 +24727,54 @@
         <v>32</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.9899922816971924</v>
       </c>
       <c r="L111" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>2.4284479216815087</v>
       </c>
       <c r="M111" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>3.4696600980688026</v>
       </c>
       <c r="N111" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O111" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>12.567821674211274</v>
       </c>
       <c r="P111" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>12.357412173858759</v>
       </c>
       <c r="R111">
         <v>32</v>
       </c>
       <c r="S111" s="3">
-        <f>(($B$1*S$5*$J$1)/(B111*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>18.156785848387504</v>
       </c>
       <c r="T111" s="3">
-        <f>(($B$1*T$5*$J$1)/(C111*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>32.004920111206609</v>
       </c>
       <c r="U111" s="3">
-        <f>(($B$1*U$5*$J$1)/(D111*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>43.833458541210511</v>
       </c>
       <c r="V111" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E111*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W111" s="3">
-        <f>(($B$1*W$5*$J$1)/(F111*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>18.519838504625174</v>
       </c>
       <c r="X111" s="3">
-        <f>(($B$1*X$5*$J$1)/(G111*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>18.112650007738562</v>
       </c>
     </row>
@@ -23773,54 +24801,54 @@
         <v>64</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>3.4972424680541012</v>
       </c>
       <c r="L112" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>3.7477633073488001</v>
       </c>
       <c r="M112" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>5.4628091375655847</v>
       </c>
       <c r="N112" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O112" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>21.563238689775392</v>
       </c>
       <c r="P112" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>24.406378677462193</v>
       </c>
       <c r="R112">
         <v>64</v>
       </c>
       <c r="S112" s="3">
-        <f>(($B$1*S$5*$J$1)/(B112*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>31.909009465196895</v>
       </c>
       <c r="T112" s="3">
-        <f>(($B$1*T$5*$J$1)/(C112*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>49.392397578926079</v>
       </c>
       <c r="U112" s="3">
-        <f>(($B$1*U$5*$J$1)/(D112*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>69.013624125114148</v>
       </c>
       <c r="V112" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E112*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W112" s="3">
-        <f>(($B$1*W$5*$J$1)/(F112*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>31.775410928273509</v>
       </c>
       <c r="X112" s="3">
-        <f>(($B$1*X$5*$J$1)/(G112*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>35.773201437462916</v>
       </c>
     </row>
@@ -23847,54 +24875,54 @@
         <v>128</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>4.995287279582139</v>
       </c>
       <c r="L113" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>4.9907407167591735</v>
       </c>
       <c r="M113" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>6.4456173833522197</v>
       </c>
       <c r="N113" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O113" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>34.430604333950249</v>
       </c>
       <c r="P113" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>38.939398286086643</v>
       </c>
       <c r="R113">
         <v>128</v>
       </c>
       <c r="S113" s="3">
-        <f>(($B$1*S$5*$J$1)/(B113*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>45.577242796737757</v>
       </c>
       <c r="T113" s="3">
-        <f>(($B$1*T$5*$J$1)/(C113*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>65.773804127956808</v>
       </c>
       <c r="U113" s="3">
-        <f>(($B$1*U$5*$J$1)/(D113*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>81.429792648257504</v>
       </c>
       <c r="V113" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E113*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W113" s="3">
-        <f>(($B$1*W$5*$J$1)/(F113*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>50.73665495985194</v>
       </c>
       <c r="X113" s="3">
-        <f>(($B$1*X$5*$J$1)/(G113*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>57.07470809785125</v>
       </c>
     </row>
@@ -23921,54 +24949,54 @@
         <v>256</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>5.3030876829696236</v>
       </c>
       <c r="L114" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>6.5806738042791526</v>
       </c>
       <c r="M114" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>9.3612690309895115</v>
       </c>
       <c r="N114" s="6" t="e">
-        <f t="shared" ref="N114:N116" si="11">$E$107/E114</f>
+        <f t="shared" ref="N114:N116" si="34">$E$107/E114</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O114" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>44.605258810702644</v>
       </c>
       <c r="P114" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>47.047233762311031</v>
       </c>
       <c r="R114">
         <v>256</v>
       </c>
       <c r="S114" s="3">
-        <f>(($B$1*S$5*$J$1)/(B114*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>48.385628567755646</v>
       </c>
       <c r="T114" s="3">
-        <f>(($B$1*T$5*$J$1)/(C114*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>86.727797414749929</v>
       </c>
       <c r="U114" s="3">
-        <f>(($B$1*U$5*$J$1)/(D114*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>118.26426403882857</v>
       </c>
       <c r="V114" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E114*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W114" s="3">
-        <f>(($B$1*W$5*$J$1)/(F114*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>65.729941993552757</v>
       </c>
       <c r="X114" s="3">
-        <f>(($B$1*X$5*$J$1)/(G114*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>68.958619084638499</v>
       </c>
     </row>
@@ -23995,54 +25023,54 @@
         <v>512</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>3.5355678580528598</v>
       </c>
       <c r="L115" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>6.800494088583025</v>
       </c>
       <c r="M115" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>10.846413756188948</v>
       </c>
       <c r="N115" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O115" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>64.478307441444755</v>
       </c>
       <c r="P115" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>63.764747728279403</v>
       </c>
       <c r="R115">
         <v>512</v>
       </c>
       <c r="S115" s="3">
-        <f>(($B$1*S$5*$J$1)/(B115*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>32.258692177619238</v>
       </c>
       <c r="T115" s="3">
-        <f>(($B$1*T$5*$J$1)/(C115*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>89.624845597317801</v>
       </c>
       <c r="U115" s="3">
-        <f>(($B$1*U$5*$J$1)/(D115*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>137.02662919844775</v>
       </c>
       <c r="V115" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E115*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W115" s="3">
-        <f>(($B$1*W$5*$J$1)/(F115*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>95.014702772035392</v>
       </c>
       <c r="X115" s="3">
-        <f>(($B$1*X$5*$J$1)/(G115*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>93.462008241278895</v>
       </c>
     </row>
@@ -24069,99 +25097,104 @@
         <v>1024</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>3.6644091316132537</v>
       </c>
       <c r="L116" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="31"/>
         <v>5.5737240212313619</v>
       </c>
       <c r="M116" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>7.2949469676856129</v>
       </c>
       <c r="N116" s="6" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O116" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>53.928522517176056</v>
       </c>
       <c r="P116" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>61.778784883872142</v>
       </c>
       <c r="R116">
         <v>1024</v>
       </c>
       <c r="S116" s="3">
-        <f>(($B$1*S$5*$J$1)/(B116*$E$1))*$T$4</f>
+        <f t="shared" si="24"/>
         <v>33.434246190559648</v>
       </c>
       <c r="T116" s="3">
-        <f>(($B$1*T$5*$J$1)/(C116*$E$1))*$T$4</f>
+        <f t="shared" si="25"/>
         <v>73.457038311904313</v>
       </c>
       <c r="U116" s="3">
-        <f>(($B$1*U$5*$J$1)/(D116*$E$1))*$T$4</f>
+        <f t="shared" si="26"/>
         <v>92.159677441128949</v>
       </c>
       <c r="V116" s="3" t="e">
-        <f>(($B$1*V$5*$J$1)/(E116*$E$1))*$T$4</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W116" s="3">
-        <f>(($B$1*W$5*$J$1)/(F116*$E$1))*$T$4</f>
+        <f t="shared" si="28"/>
         <v>79.468626600625413</v>
       </c>
       <c r="X116" s="3">
-        <f>(($B$1*X$5*$J$1)/(G116*$E$1))*$T$4</f>
+        <f t="shared" si="29"/>
         <v>90.551119665010788</v>
       </c>
     </row>
-    <row r="184" spans="2:17">
+    <row r="182" spans="1:17">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
       <c r="C184" t="s">
+        <v>53</v>
+      </c>
+      <c r="D184" t="s">
         <v>55</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>57</v>
       </c>
-      <c r="E184" t="s">
-        <v>59</v>
-      </c>
       <c r="F184" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" t="s">
         <v>56</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>58</v>
-      </c>
-      <c r="H184" t="s">
-        <v>60</v>
       </c>
       <c r="K184" t="s">
         <v>31</v>
       </c>
       <c r="L184" t="s">
+        <v>53</v>
+      </c>
+      <c r="M184" t="s">
         <v>55</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>57</v>
       </c>
-      <c r="N184" t="s">
-        <v>59</v>
-      </c>
       <c r="O184" t="s">
+        <v>54</v>
+      </c>
+      <c r="P184" t="s">
         <v>56</v>
       </c>
-      <c r="P184" t="s">
+      <c r="Q184" t="s">
         <v>58</v>
       </c>
-      <c r="Q184" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="185" spans="2:17">
+    <row r="185" spans="1:17">
       <c r="B185">
         <v>1</v>
       </c>
@@ -24187,15 +25220,15 @@
         <v>1</v>
       </c>
       <c r="L185">
-        <f>$C$185/$C185</f>
+        <f t="shared" ref="L185:L195" si="35">$C$185/$C185</f>
         <v>1</v>
       </c>
       <c r="M185">
-        <f>$D$185/$D185</f>
+        <f t="shared" ref="M185:M195" si="36">$D$185/$D185</f>
         <v>1</v>
       </c>
       <c r="N185">
-        <f>$E$185/$E185</f>
+        <f t="shared" ref="N185:N195" si="37">$E$185/$E185</f>
         <v>1</v>
       </c>
       <c r="O185">
@@ -24211,7 +25244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:17">
+    <row r="186" spans="1:17">
       <c r="B186">
         <v>2</v>
       </c>
@@ -24237,31 +25270,31 @@
         <v>2</v>
       </c>
       <c r="L186">
-        <f>$C$185/$C186</f>
+        <f t="shared" si="35"/>
         <v>1.9061271206092028</v>
       </c>
       <c r="M186">
-        <f>$D$185/$D186</f>
+        <f t="shared" si="36"/>
         <v>1.8795832957961032</v>
       </c>
       <c r="N186">
-        <f>$E$185/$E186</f>
+        <f t="shared" si="37"/>
         <v>1.7449113286771003</v>
       </c>
       <c r="O186">
-        <f t="shared" ref="O186:O195" si="12">$F$185/$F186</f>
+        <f t="shared" ref="O186:O195" si="38">$F$185/$F186</f>
         <v>1.9112249465360325</v>
       </c>
       <c r="P186">
-        <f t="shared" ref="P186:P195" si="13">$G$185/$G186</f>
+        <f t="shared" ref="P186:P195" si="39">$G$185/$G186</f>
         <v>1.9051884442968621</v>
       </c>
       <c r="Q186">
-        <f t="shared" ref="Q186:Q195" si="14">$H$185/$H186</f>
+        <f t="shared" ref="Q186:Q195" si="40">$H$185/$H186</f>
         <v>1.7374992937454095</v>
       </c>
     </row>
-    <row r="187" spans="2:17">
+    <row r="187" spans="1:17">
       <c r="B187">
         <v>4</v>
       </c>
@@ -24287,31 +25320,31 @@
         <v>4</v>
       </c>
       <c r="L187">
-        <f>$C$185/$C187</f>
+        <f t="shared" si="35"/>
         <v>2.3948076875140214</v>
       </c>
       <c r="M187">
-        <f>$D$185/$D187</f>
+        <f t="shared" si="36"/>
         <v>2.5248414678689146</v>
       </c>
       <c r="N187">
-        <f>$E$185/$E187</f>
+        <f t="shared" si="37"/>
         <v>2.1846410188515959</v>
       </c>
       <c r="O187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>2.4460944536563476</v>
       </c>
       <c r="P187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>2.5217093198167659</v>
       </c>
       <c r="Q187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>2.4452572684294989</v>
       </c>
     </row>
-    <row r="188" spans="2:17">
+    <row r="188" spans="1:17">
       <c r="B188">
         <v>8</v>
       </c>
@@ -24337,31 +25370,31 @@
         <v>8</v>
       </c>
       <c r="L188">
-        <f>$C$185/$C188</f>
+        <f t="shared" si="35"/>
         <v>3.1705983907329984</v>
       </c>
       <c r="M188">
-        <f>$D$185/$D188</f>
+        <f t="shared" si="36"/>
         <v>3.3346265056739757</v>
       </c>
       <c r="N188">
-        <f>$E$185/$E188</f>
+        <f t="shared" si="37"/>
         <v>3.1350800285452136</v>
       </c>
       <c r="O188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>3.2201678418951136</v>
       </c>
       <c r="P188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>3.3281803112986053</v>
       </c>
       <c r="Q188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>3.1418938373659033</v>
       </c>
     </row>
-    <row r="189" spans="2:17">
+    <row r="189" spans="1:17">
       <c r="B189">
         <v>16</v>
       </c>
@@ -24387,31 +25420,31 @@
         <v>16</v>
       </c>
       <c r="L189">
-        <f>$C$185/$C189</f>
+        <f t="shared" si="35"/>
         <v>5.3916331405361611</v>
       </c>
       <c r="M189">
-        <f>$D$185/$D189</f>
+        <f t="shared" si="36"/>
         <v>5.6404729661643875</v>
       </c>
       <c r="N189">
-        <f>$E$185/$E189</f>
+        <f t="shared" si="37"/>
         <v>6.280264450166813</v>
       </c>
       <c r="O189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>5.4907199702810443</v>
       </c>
       <c r="P189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>5.6938600321537027</v>
       </c>
       <c r="Q189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>5.0950793696218959</v>
       </c>
     </row>
-    <row r="190" spans="2:17">
+    <row r="190" spans="1:17">
       <c r="B190">
         <v>32</v>
       </c>
@@ -24437,31 +25470,31 @@
         <v>32</v>
       </c>
       <c r="L190">
-        <f>$C$185/$C190</f>
+        <f t="shared" si="35"/>
         <v>9.3825954794880104</v>
       </c>
       <c r="M190">
-        <f>$D$185/$D190</f>
+        <f t="shared" si="36"/>
         <v>10.812673733804475</v>
       </c>
       <c r="N190">
-        <f>$E$185/$E190</f>
+        <f t="shared" si="37"/>
         <v>11.657798241018996</v>
       </c>
       <c r="O190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>9.5349630612915828</v>
       </c>
       <c r="P190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>10.710388889148158</v>
       </c>
       <c r="Q190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>11.724589709373863</v>
       </c>
     </row>
-    <row r="191" spans="2:17">
+    <row r="191" spans="1:17">
       <c r="B191">
         <v>64</v>
       </c>
@@ -24487,31 +25520,31 @@
         <v>64</v>
       </c>
       <c r="L191">
-        <f>$C$185/$C191</f>
+        <f t="shared" si="35"/>
         <v>17.906810403274847</v>
       </c>
       <c r="M191">
-        <f>$D$185/$D191</f>
+        <f t="shared" si="36"/>
         <v>19.505103645218043</v>
       </c>
       <c r="N191">
-        <f>$E$185/$E191</f>
+        <f t="shared" si="37"/>
         <v>21.635561240805885</v>
       </c>
       <c r="O191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>19.116266286619634</v>
       </c>
       <c r="P191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>19.114244546794705</v>
       </c>
       <c r="Q191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>21.727278566381912</v>
       </c>
     </row>
-    <row r="192" spans="2:17">
+    <row r="192" spans="1:17">
       <c r="B192">
         <v>128</v>
       </c>
@@ -24537,27 +25570,27 @@
         <v>128</v>
       </c>
       <c r="L192">
-        <f>$C$185/$C192</f>
+        <f t="shared" si="35"/>
         <v>29.599590231804022</v>
       </c>
       <c r="M192">
-        <f>$D$185/$D192</f>
+        <f t="shared" si="36"/>
         <v>32.045279688789407</v>
       </c>
       <c r="N192">
-        <f>$E$185/$E192</f>
+        <f t="shared" si="37"/>
         <v>34.462305834218817</v>
       </c>
       <c r="O192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>34.220251293422031</v>
       </c>
       <c r="P192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>33.538560013093978</v>
       </c>
       <c r="Q192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>37.351913298403879</v>
       </c>
     </row>
@@ -24587,27 +25620,27 @@
         <v>256</v>
       </c>
       <c r="L193">
-        <f>$C$185/$C193</f>
+        <f t="shared" si="35"/>
         <v>39.268662168824896</v>
       </c>
       <c r="M193">
-        <f>$D$185/$D193</f>
+        <f t="shared" si="36"/>
         <v>50.032483104425552</v>
       </c>
       <c r="N193">
-        <f>$E$185/$E193</f>
+        <f t="shared" si="37"/>
         <v>57.687401515719962</v>
       </c>
       <c r="O193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>51.011664758491385</v>
       </c>
       <c r="P193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>58.19250010776436</v>
       </c>
       <c r="Q193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>67.920103444675576</v>
       </c>
     </row>
@@ -24637,27 +25670,27 @@
         <v>512</v>
       </c>
       <c r="L194">
-        <f>$C$185/$C194</f>
+        <f t="shared" si="35"/>
         <v>32.235105135899715</v>
       </c>
       <c r="M194">
-        <f>$D$185/$D194</f>
+        <f t="shared" si="36"/>
         <v>63.098926901155579</v>
       </c>
       <c r="N194">
-        <f>$E$185/$E194</f>
+        <f t="shared" si="37"/>
         <v>80.672910212657371</v>
       </c>
       <c r="O194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>79.398350215133192</v>
       </c>
       <c r="P194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>79.11821588507641</v>
       </c>
       <c r="Q194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>94.788844085644868</v>
       </c>
     </row>
@@ -24687,33 +25720,33 @@
         <v>1024</v>
       </c>
       <c r="L195">
-        <f>$C$185/$C195</f>
+        <f t="shared" si="35"/>
         <v>35.305115148842539</v>
       </c>
       <c r="M195">
-        <f>$D$185/$D195</f>
+        <f t="shared" si="36"/>
         <v>60.564852176253723</v>
       </c>
       <c r="N195">
-        <f>$E$185/$E195</f>
+        <f t="shared" si="37"/>
         <v>67.576956807498604</v>
       </c>
       <c r="O195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v>90.515418995071343</v>
       </c>
       <c r="P195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>107.21546899380529</v>
       </c>
       <c r="Q195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="40"/>
         <v>115.43346584995479</v>
       </c>
     </row>
     <row r="232" spans="3:6">
       <c r="C232" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233" spans="3:6">
@@ -24732,15 +25765,15 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <f>C185/F185</f>
+        <f t="shared" ref="D234:D244" si="41">C185/F185</f>
         <v>1</v>
       </c>
       <c r="E234">
-        <f>D185/G185</f>
+        <f t="shared" ref="E234:E244" si="42">D185/G185</f>
         <v>1</v>
       </c>
       <c r="F234">
-        <f>E185/H185</f>
+        <f t="shared" ref="F234:F244" si="43">E185/H185</f>
         <v>1</v>
       </c>
     </row>
@@ -24749,15 +25782,15 @@
         <v>2</v>
       </c>
       <c r="D235">
-        <f>C186/F186</f>
+        <f t="shared" si="41"/>
         <v>1.0026744417367086</v>
       </c>
       <c r="E235">
-        <f>D186/G186</f>
+        <f t="shared" si="42"/>
         <v>1.013622779345841</v>
       </c>
       <c r="F235">
-        <f>E186/H186</f>
+        <f t="shared" si="43"/>
         <v>0.99575219966202511</v>
       </c>
     </row>
@@ -24766,15 +25799,15 @@
         <v>4</v>
       </c>
       <c r="D236">
-        <f>C187/F187</f>
+        <f t="shared" si="41"/>
         <v>1.0214158182344761</v>
       </c>
       <c r="E236">
-        <f>D187/G187</f>
+        <f t="shared" si="42"/>
         <v>0.99875946743904198</v>
       </c>
       <c r="F236">
-        <f>E187/H187</f>
+        <f t="shared" si="43"/>
         <v>1.1192947707788172</v>
       </c>
     </row>
@@ -24783,15 +25816,15 @@
         <v>8</v>
       </c>
       <c r="D237">
-        <f>C188/F188</f>
+        <f t="shared" si="41"/>
         <v>1.0156340996409372</v>
       </c>
       <c r="E237">
-        <f>D188/G188</f>
+        <f t="shared" si="42"/>
         <v>0.99806689164006757</v>
       </c>
       <c r="F237">
-        <f>E188/H188</f>
+        <f t="shared" si="43"/>
         <v>1.0021734082570937</v>
       </c>
     </row>
@@ -24800,15 +25833,15 @@
         <v>16</v>
       </c>
       <c r="D238">
-        <f>C189/F189</f>
+        <f t="shared" si="41"/>
         <v>1.0183778879538214</v>
       </c>
       <c r="E238">
-        <f>D189/G189</f>
+        <f t="shared" si="42"/>
         <v>1.0094649981144435</v>
       </c>
       <c r="F238">
-        <f>E189/H189</f>
+        <f t="shared" si="43"/>
         <v>0.81128420786270605</v>
       </c>
     </row>
@@ -24817,15 +25850,15 @@
         <v>32</v>
       </c>
       <c r="D239">
-        <f>C190/F190</f>
+        <f t="shared" si="41"/>
         <v>1.0162393851612461</v>
       </c>
       <c r="E239">
-        <f>D190/G190</f>
+        <f t="shared" si="42"/>
         <v>0.99054028197146682</v>
       </c>
       <c r="F239">
-        <f>E190/H190</f>
+        <f t="shared" si="43"/>
         <v>1.0057293381626604</v>
       </c>
     </row>
@@ -24834,15 +25867,15 @@
         <v>64</v>
       </c>
       <c r="D240">
-        <f>C191/F191</f>
+        <f t="shared" si="41"/>
         <v>1.0675416702420437</v>
       </c>
       <c r="E240">
-        <f>D191/G191</f>
+        <f t="shared" si="42"/>
         <v>0.97996118833651202</v>
       </c>
       <c r="F240">
-        <f>E191/H191</f>
+        <f t="shared" si="43"/>
         <v>1.0042391932686749</v>
       </c>
     </row>
@@ -24851,15 +25884,15 @@
         <v>128</v>
       </c>
       <c r="D241">
-        <f>C192/F192</f>
+        <f t="shared" si="41"/>
         <v>1.1561055752945262</v>
       </c>
       <c r="E241">
-        <f>D192/G192</f>
+        <f t="shared" si="42"/>
         <v>1.0465990728995564</v>
       </c>
       <c r="F241">
-        <f>E192/H192</f>
+        <f t="shared" si="43"/>
         <v>1.0838483495006266</v>
       </c>
     </row>
@@ -24868,15 +25901,15 @@
         <v>256</v>
       </c>
       <c r="D242">
-        <f>C193/F193</f>
+        <f t="shared" si="41"/>
         <v>1.2990425937909635</v>
       </c>
       <c r="E242">
-        <f>D193/G193</f>
+        <f t="shared" si="42"/>
         <v>1.1630943838287535</v>
       </c>
       <c r="F242">
-        <f>E193/H193</f>
+        <f t="shared" si="43"/>
         <v>1.1773819180634644</v>
       </c>
     </row>
@@ -24885,15 +25918,15 @@
         <v>512</v>
       </c>
       <c r="D243">
-        <f>C194/F194</f>
+        <f t="shared" si="41"/>
         <v>2.4631019467874649</v>
       </c>
       <c r="E243">
-        <f>D194/G194</f>
+        <f t="shared" si="42"/>
         <v>1.2538757752412339</v>
       </c>
       <c r="F243">
-        <f>E194/H194</f>
+        <f t="shared" si="43"/>
         <v>1.1749773726493475</v>
       </c>
     </row>
@@ -24902,15 +25935,15 @@
         <v>1024</v>
       </c>
       <c r="D244">
-        <f>C195/F195</f>
+        <f t="shared" si="41"/>
         <v>2.5638046672123331</v>
       </c>
       <c r="E244">
-        <f>D195/G195</f>
+        <f t="shared" si="42"/>
         <v>1.770258906631037</v>
       </c>
       <c r="F244">
-        <f>E195/H195</f>
+        <f t="shared" si="43"/>
         <v>1.7081779248920814</v>
       </c>
     </row>
@@ -24924,10 +25957,10 @@
         <v>0</v>
       </c>
       <c r="N257" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O257" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="12:15">
@@ -25085,7 +26118,7 @@
         <v>0.9056252686620776</v>
       </c>
       <c r="P285" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="286" spans="10:16">
@@ -25256,8 +26289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView topLeftCell="B92" workbookViewId="0">
-      <selection activeCell="R145" sqref="R145"/>
+    <sheetView topLeftCell="C113" workbookViewId="0">
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25292,10 +26325,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -25558,7 +26591,7 @@
         <v>1.1890400000000001</v>
       </c>
       <c r="AF13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -26153,28 +27186,28 @@
     </row>
     <row r="101" spans="1:9">
       <c r="B101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -27038,7 +28071,7 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27851,10 +28884,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27863,12 +28896,12 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -27906,7 +28939,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -27944,7 +28977,7 @@
         <v>40202.226600000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -27982,7 +29015,7 @@
         <v>500.56400000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -28031,7 +29064,7 @@
         <v>40702.7906</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -28069,7 +29102,7 @@
         <v>5.33263</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -28118,9 +29151,9 @@
         <v>7633</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>673721</v>
@@ -28154,16 +29187,19 @@
       </c>
       <c r="L8">
         <v>21330.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -28183,7 +29219,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G3" sqref="G3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28195,7 +29231,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>

--- a/latex/performance_content/scaling/ItascaScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaScaling.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43540" windowHeight="27320" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strong 4.096M nodes" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="454">
+  <cellStyleXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -745,6 +745,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -762,7 +768,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="454">
+  <cellStyles count="460">
     <cellStyle name="Comma" xfId="40" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -997,6 +1003,9 @@
     <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1215,6 +1224,9 @@
     <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="41" builtinId="5"/>
   </cellStyles>
@@ -1260,7 +1272,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1644,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788112184"/>
-        <c:axId val="1788117736"/>
+        <c:axId val="2070879304"/>
+        <c:axId val="2070882600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788112184"/>
+        <c:axId val="2070879304"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1671,19 +1682,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788117736"/>
+        <c:crossAx val="2070882600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788117736"/>
+        <c:axId val="2070882600"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1712,14 +1722,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788112184"/>
+        <c:crossAx val="2070879304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1730,7 +1739,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2165,11 +2173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788391208"/>
-        <c:axId val="1788396760"/>
+        <c:axId val="2087454328"/>
+        <c:axId val="2087459672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788391208"/>
+        <c:axId val="2087454328"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2198,12 +2206,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788396760"/>
+        <c:crossAx val="2087459672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788396760"/>
+        <c:axId val="2087459672"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2238,7 +2246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788391208"/>
+        <c:crossAx val="2087454328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2721,11 +2729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788527240"/>
-        <c:axId val="1788532792"/>
+        <c:axId val="2087520408"/>
+        <c:axId val="2087525944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788527240"/>
+        <c:axId val="2087520408"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2754,12 +2762,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788532792"/>
+        <c:crossAx val="2087525944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788532792"/>
+        <c:axId val="2087525944"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2789,7 +2797,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788527240"/>
+        <c:crossAx val="2087520408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,11 +3176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121946296"/>
-        <c:axId val="2121545096"/>
+        <c:axId val="2087563256"/>
+        <c:axId val="2087568728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121946296"/>
+        <c:axId val="2087563256"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3201,12 +3209,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121545096"/>
+        <c:crossAx val="2087568728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121545096"/>
+        <c:axId val="2087568728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +3243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121946296"/>
+        <c:crossAx val="2087563256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3315,7 +3323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3590,11 +3597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788437176"/>
-        <c:axId val="1788442648"/>
+        <c:axId val="2087606136"/>
+        <c:axId val="2087611624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788437176"/>
+        <c:axId val="2087606136"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3617,19 +3624,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788442648"/>
+        <c:crossAx val="2087611624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788442648"/>
+        <c:axId val="2087611624"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3658,21 +3664,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788437176"/>
+        <c:crossAx val="2087606136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3729,7 +3733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4134,11 +4137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788572584"/>
-        <c:axId val="1788578136"/>
+        <c:axId val="2112096344"/>
+        <c:axId val="2112101912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788572584"/>
+        <c:axId val="2112096344"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4161,19 +4164,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788578136"/>
+        <c:crossAx val="2112101912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788578136"/>
+        <c:axId val="2112101912"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4202,14 +4204,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788572584"/>
+        <c:crossAx val="2112096344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4220,7 +4221,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4277,7 +4277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4585,11 +4584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065069464"/>
-        <c:axId val="2065074936"/>
+        <c:axId val="2112146888"/>
+        <c:axId val="2112152376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065069464"/>
+        <c:axId val="2112146888"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4612,19 +4611,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065074936"/>
+        <c:crossAx val="2112152376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065074936"/>
+        <c:axId val="2112152376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,14 +4645,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065069464"/>
+        <c:crossAx val="2112146888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4667,7 +4664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4719,7 +4715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5336,11 +5331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065128936"/>
-        <c:axId val="2065134568"/>
+        <c:axId val="2112206088"/>
+        <c:axId val="2112211704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065128936"/>
+        <c:axId val="2112206088"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5363,19 +5358,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065134568"/>
+        <c:crossAx val="2112211704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065134568"/>
+        <c:axId val="2112211704"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5404,14 +5398,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065128936"/>
+        <c:crossAx val="2112206088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5424,7 +5417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5476,7 +5468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5775,11 +5766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065169416"/>
-        <c:axId val="2065174920"/>
+        <c:axId val="2112246056"/>
+        <c:axId val="2112251576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065169416"/>
+        <c:axId val="2112246056"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5802,19 +5793,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065174920"/>
+        <c:crossAx val="2112251576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065174920"/>
+        <c:axId val="2112251576"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5843,21 +5833,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065169416"/>
+        <c:crossAx val="2112246056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5909,7 +5897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6326,11 +6313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073656264"/>
-        <c:axId val="-2073662280"/>
+        <c:axId val="2112295832"/>
+        <c:axId val="2112301400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073656264"/>
+        <c:axId val="2112295832"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6353,19 +6340,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073662280"/>
+        <c:crossAx val="2112301400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073662280"/>
+        <c:axId val="2112301400"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6389,14 +6375,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073656264"/>
+        <c:crossAx val="2112295832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6409,7 +6394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6462,7 +6446,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6779,11 +6762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073687992"/>
-        <c:axId val="-2073685352"/>
+        <c:axId val="2112338872"/>
+        <c:axId val="2112344392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073687992"/>
+        <c:axId val="2112338872"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6806,19 +6789,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073685352"/>
+        <c:crossAx val="2112344392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073685352"/>
+        <c:axId val="2112344392"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6847,14 +6829,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073687992"/>
+        <c:crossAx val="2112338872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6867,7 +6848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6924,7 +6904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7411,11 +7390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788167592"/>
-        <c:axId val="1788173288"/>
+        <c:axId val="2069955496"/>
+        <c:axId val="2069949784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788167592"/>
+        <c:axId val="2069955496"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7438,19 +7417,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788173288"/>
+        <c:crossAx val="2069949784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788173288"/>
+        <c:axId val="2069949784"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7474,14 +7452,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788167592"/>
+        <c:crossAx val="2069955496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7492,7 +7469,6 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7544,7 +7520,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7861,11 +7836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2078647480"/>
-        <c:axId val="-2043863352"/>
+        <c:axId val="2112383928"/>
+        <c:axId val="2112389432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2078647480"/>
+        <c:axId val="2112383928"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7888,19 +7863,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2043863352"/>
+        <c:crossAx val="2112389432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2043863352"/>
+        <c:axId val="2112389432"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7929,14 +7903,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078647480"/>
+        <c:crossAx val="2112383928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7949,7 +7922,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8419,11 +8391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070434920"/>
-        <c:axId val="2070440504"/>
+        <c:axId val="2083083176"/>
+        <c:axId val="2083088760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070434920"/>
+        <c:axId val="2083083176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8453,12 +8425,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070440504"/>
+        <c:crossAx val="2083088760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070440504"/>
+        <c:axId val="2083088760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8492,7 +8464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070434920"/>
+        <c:crossAx val="2083083176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8969,11 +8941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070500392"/>
-        <c:axId val="2070505976"/>
+        <c:axId val="2083132008"/>
+        <c:axId val="2083137592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070500392"/>
+        <c:axId val="2083132008"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9003,12 +8975,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070505976"/>
+        <c:crossAx val="2083137592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070505976"/>
+        <c:axId val="2083137592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9042,7 +9014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070500392"/>
+        <c:crossAx val="2083132008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9487,11 +9459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070545336"/>
-        <c:axId val="2070550920"/>
+        <c:axId val="2083177144"/>
+        <c:axId val="2083182728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070545336"/>
+        <c:axId val="2083177144"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9521,12 +9493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070550920"/>
+        <c:crossAx val="2083182728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070550920"/>
+        <c:axId val="2083182728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9560,7 +9532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070545336"/>
+        <c:crossAx val="2083177144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9921,11 +9893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070586952"/>
-        <c:axId val="2070592456"/>
+        <c:axId val="2122590008"/>
+        <c:axId val="2122586440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070586952"/>
+        <c:axId val="2122590008"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9955,12 +9927,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070592456"/>
+        <c:crossAx val="2122586440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070592456"/>
+        <c:axId val="2122586440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9994,7 +9966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070586952"/>
+        <c:crossAx val="2122590008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10388,11 +10360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073677240"/>
-        <c:axId val="-2073674600"/>
+        <c:axId val="2112452680"/>
+        <c:axId val="2112458152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073677240"/>
+        <c:axId val="2112452680"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10422,12 +10394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073674600"/>
+        <c:crossAx val="2112458152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073674600"/>
+        <c:axId val="2112458152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10461,7 +10433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073677240"/>
+        <c:crossAx val="2112452680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10817,11 +10789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073712952"/>
-        <c:axId val="-2073723512"/>
+        <c:axId val="2112494424"/>
+        <c:axId val="2112499944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073712952"/>
+        <c:axId val="2112494424"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10851,12 +10823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073723512"/>
+        <c:crossAx val="2112499944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073723512"/>
+        <c:axId val="2112499944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10890,7 +10862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073712952"/>
+        <c:crossAx val="2112494424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11761,11 +11733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073755816"/>
-        <c:axId val="-2073762344"/>
+        <c:axId val="2112563768"/>
+        <c:axId val="2112569304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073755816"/>
+        <c:axId val="2112563768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -11795,12 +11767,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073762344"/>
+        <c:crossAx val="2112569304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073762344"/>
+        <c:axId val="2112569304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11834,7 +11806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073755816"/>
+        <c:crossAx val="2112563768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12308,11 +12280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2021597464"/>
-        <c:axId val="-2129372024"/>
+        <c:axId val="2112606472"/>
+        <c:axId val="2112612056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2021597464"/>
+        <c:axId val="2112606472"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -12342,12 +12314,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129372024"/>
+        <c:crossAx val="2112612056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129372024"/>
+        <c:axId val="2112612056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -12382,7 +12354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2021597464"/>
+        <c:crossAx val="2112606472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12439,7 +12411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12956,11 +12927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073815752"/>
-        <c:axId val="-2073823048"/>
+        <c:axId val="2112693496"/>
+        <c:axId val="2112699464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073815752"/>
+        <c:axId val="2112693496"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -12988,19 +12959,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073823048"/>
+        <c:crossAx val="2112699464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073823048"/>
+        <c:axId val="2112699464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13024,21 +12994,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073815752"/>
+        <c:crossAx val="2112693496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13095,7 +13063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13412,11 +13379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788211032"/>
-        <c:axId val="1788216504"/>
+        <c:axId val="2087293880"/>
+        <c:axId val="2087299368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788211032"/>
+        <c:axId val="2087293880"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13439,19 +13406,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788216504"/>
+        <c:crossAx val="2087299368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788216504"/>
+        <c:axId val="2087299368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13474,14 +13440,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788211032"/>
+        <c:crossAx val="2087293880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13494,7 +13459,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13544,7 +13508,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13971,11 +13934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073848296"/>
-        <c:axId val="-2073853896"/>
+        <c:axId val="2112742168"/>
+        <c:axId val="2112747992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073848296"/>
+        <c:axId val="2112742168"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14003,19 +13966,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073853896"/>
+        <c:crossAx val="2112747992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073853896"/>
+        <c:axId val="2112747992"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14039,21 +14001,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073848296"/>
+        <c:crossAx val="2112742168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14103,7 +14063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14620,11 +14579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073886392"/>
-        <c:axId val="-2073890616"/>
+        <c:axId val="2112794440"/>
+        <c:axId val="2112800408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073886392"/>
+        <c:axId val="2112794440"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14652,19 +14611,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073890616"/>
+        <c:crossAx val="2112800408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073890616"/>
+        <c:axId val="2112800408"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14688,21 +14646,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073886392"/>
+        <c:crossAx val="2112794440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14747,7 +14703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15164,11 +15119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073915736"/>
-        <c:axId val="-2073922008"/>
+        <c:axId val="2112837160"/>
+        <c:axId val="2083025832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073915736"/>
+        <c:axId val="2112837160"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15176,19 +15131,18 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073922008"/>
+        <c:crossAx val="2083025832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073922008"/>
+        <c:axId val="2083025832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15197,21 +15151,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073915736"/>
+        <c:crossAx val="2112837160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15475,11 +15427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073943720"/>
-        <c:axId val="-2073950648"/>
+        <c:axId val="2083260872"/>
+        <c:axId val="2083266408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073943720"/>
+        <c:axId val="2083260872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15508,7 +15460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073950648"/>
+        <c:crossAx val="2083266408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15516,7 +15468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073950648"/>
+        <c:axId val="2083266408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15546,7 +15498,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073943720"/>
+        <c:crossAx val="2083260872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -15601,7 +15553,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15718,11 +15669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073979736"/>
-        <c:axId val="-2073984072"/>
+        <c:axId val="2083301048"/>
+        <c:axId val="2083306808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2073979736"/>
+        <c:axId val="2083301048"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15750,19 +15701,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073984072"/>
+        <c:crossAx val="2083306808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2073984072"/>
+        <c:axId val="2083306808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15785,21 +15735,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073979736"/>
+        <c:crossAx val="2083301048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15849,7 +15797,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16169,11 +16116,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2074017096"/>
-        <c:axId val="-2074036856"/>
+        <c:axId val="2083346344"/>
+        <c:axId val="2083351832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074017096"/>
+        <c:axId val="2083346344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16195,14 +16142,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074036856"/>
+        <c:crossAx val="2083351832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16210,7 +16156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074036856"/>
+        <c:axId val="2083351832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16233,14 +16179,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074017096"/>
+        <c:crossAx val="2083346344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -16250,7 +16195,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16300,7 +16244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16661,11 +16604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074046936"/>
-        <c:axId val="-2074043832"/>
+        <c:axId val="2112847288"/>
+        <c:axId val="2112853112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074046936"/>
+        <c:axId val="2112847288"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16693,19 +16636,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074043832"/>
+        <c:crossAx val="2112853112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074043832"/>
+        <c:axId val="2112853112"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16729,21 +16671,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074046936"/>
+        <c:crossAx val="2112847288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17217,11 +17157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2074072920"/>
-        <c:axId val="-2074077848"/>
+        <c:axId val="2111919752"/>
+        <c:axId val="2111913928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2074072920"/>
+        <c:axId val="2111919752"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17249,19 +17189,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074077848"/>
+        <c:crossAx val="2111913928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074077848"/>
+        <c:axId val="2111913928"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17285,21 +17224,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074072920"/>
+        <c:crossAx val="2111919752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17351,7 +17288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18081,11 +18017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788279576"/>
-        <c:axId val="1788285096"/>
+        <c:axId val="2087377384"/>
+        <c:axId val="2087382840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788279576"/>
+        <c:axId val="2087377384"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18108,19 +18044,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788285096"/>
+        <c:crossAx val="2087382840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788285096"/>
+        <c:axId val="2087382840"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18149,14 +18084,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788279576"/>
+        <c:crossAx val="2087377384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18167,7 +18101,6 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18224,7 +18157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18733,11 +18665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121636008"/>
-        <c:axId val="2121794648"/>
+        <c:axId val="2087426616"/>
+        <c:axId val="2087432328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121636008"/>
+        <c:axId val="2087426616"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18760,19 +18692,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121794648"/>
+        <c:crossAx val="2087432328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121794648"/>
+        <c:axId val="2087432328"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18796,21 +18727,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121636008"/>
+        <c:crossAx val="2087426616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18867,7 +18796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19284,11 +19212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121609496"/>
-        <c:axId val="2121896680"/>
+        <c:axId val="2069918936"/>
+        <c:axId val="2069913368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121609496"/>
+        <c:axId val="2069918936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19311,19 +19239,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121896680"/>
+        <c:crossAx val="2069913368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121896680"/>
+        <c:axId val="2069913368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19346,21 +19273,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121609496"/>
+        <c:crossAx val="2069918936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19412,7 +19337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19775,11 +19699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121685368"/>
-        <c:axId val="2121522056"/>
+        <c:axId val="2122464952"/>
+        <c:axId val="2122470456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121685368"/>
+        <c:axId val="2122464952"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19802,19 +19726,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121522056"/>
+        <c:crossAx val="2122470456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121522056"/>
+        <c:axId val="2122470456"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19843,14 +19766,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121685368"/>
+        <c:crossAx val="2122464952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19861,7 +19783,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19918,7 +19839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20420,11 +20340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788497704"/>
-        <c:axId val="1788503400"/>
+        <c:axId val="2122518152"/>
+        <c:axId val="2122523848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788497704"/>
+        <c:axId val="2122518152"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20447,19 +20367,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788503400"/>
+        <c:crossAx val="2122523848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1788503400"/>
+        <c:axId val="2122523848"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20488,14 +20407,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788497704"/>
+        <c:crossAx val="2122518152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20506,7 +20424,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20563,7 +20480,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20871,11 +20787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121923736"/>
-        <c:axId val="2121559992"/>
+        <c:axId val="2122561992"/>
+        <c:axId val="2122567464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121923736"/>
+        <c:axId val="2122561992"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20898,19 +20814,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121559992"/>
+        <c:crossAx val="2122567464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121559992"/>
+        <c:axId val="2122567464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20933,14 +20848,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121923736"/>
+        <c:crossAx val="2122561992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20953,7 +20867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26289,8 +26202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView topLeftCell="C113" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28886,7 +28799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Strong 4.096M nodes" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="460">
+  <cellStyleXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -751,8 +751,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -766,9 +784,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="460">
+  <cellStyles count="478">
     <cellStyle name="Comma" xfId="40" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1006,6 +1023,15 @@
     <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1227,6 +1253,15 @@
     <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="41" builtinId="5"/>
   </cellStyles>
@@ -1256,22 +1291,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Strong Scaling of SpMV + MPI Communication on Itasca</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1682,6 +1718,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1712,16 +1749,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1739,12 +1772,23 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -1790,6 +1834,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2200,6 +2245,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2240,6 +2286,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2257,6 +2304,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2313,6 +2361,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2756,6 +2805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2791,6 +2841,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -2804,6 +2855,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2860,6 +2912,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3203,6 +3256,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3237,6 +3291,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -3256,6 +3311,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3323,6 +3379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3624,6 +3681,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3664,6 +3722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -3677,6 +3736,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3733,6 +3793,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4164,6 +4225,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4204,6 +4266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4221,6 +4284,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4277,6 +4341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4611,6 +4676,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4645,6 +4711,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -4664,6 +4731,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4715,6 +4783,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5358,6 +5427,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5398,6 +5468,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -5417,6 +5488,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5468,6 +5540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5793,6 +5866,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5833,6 +5907,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -5846,6 +5921,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5897,6 +5973,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6340,6 +6417,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6375,6 +6453,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6394,6 +6473,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6446,6 +6526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6789,6 +6870,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6829,6 +6911,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6848,6 +6931,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6883,27 +6967,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speedup</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of SpMV + MPI Communication on Itasca</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Speedup of SpMV + MPI Communication on Itasca</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv) </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7417,6 +7497,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7452,6 +7533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7469,12 +7551,23 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -7520,6 +7613,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7863,6 +7957,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7903,6 +7998,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -7922,6 +8018,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7957,21 +8054,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Weak Scaling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of SpMV + MPI Communication on Itasca </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling of SpMV + MPI on Itasca </a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Np = 4000 points, regular grid; IMPI (MPI_Alltoallv)</a:t>
             </a:r>
           </a:p>
@@ -8448,11 +8541,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8478,6 +8567,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -8507,21 +8606,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Weak Scaling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of SpMV (no MPI Communication) on Itasca </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling of SpMV (no MPI Communication) on Itasca </a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Np = 4000 points regular grid</a:t>
             </a:r>
           </a:p>
@@ -8998,11 +9093,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9028,6 +9119,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -9057,21 +9158,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Weak Scaling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of MPI Communication (No SpMV) on Itasca </a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling of Communication Only on Itasca </a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Np = 4000 points; IMPI (MPI_Alltoallv)</a:t>
             </a:r>
           </a:p>
@@ -9516,11 +9613,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9546,6 +9639,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -12411,6 +12514,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12959,6 +13063,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12994,6 +13099,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -13007,6 +13113,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13063,6 +13170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13406,6 +13514,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -13419,6 +13528,7 @@
       <c:valAx>
         <c:axId val="2087299368"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13440,6 +13550,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -13459,6 +13570,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13508,6 +13620,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13966,6 +14079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14001,6 +14115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -14014,6 +14129,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14063,6 +14179,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14611,6 +14728,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14646,6 +14764,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -14659,6 +14778,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14703,6 +14823,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15131,6 +15252,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15151,6 +15273,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -15164,6 +15287,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15553,6 +15677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15701,6 +15826,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15735,6 +15861,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15748,6 +15875,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15797,6 +15925,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16142,6 +16271,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -16179,6 +16309,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -16195,6 +16326,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16244,6 +16376,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16636,6 +16769,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -16671,6 +16805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -16684,6 +16819,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17189,6 +17325,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -17224,6 +17361,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -17237,6 +17375,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17272,22 +17411,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Strong Scaling of MPI Communication Only on Itasca</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Strong Scaling of SpMV Only on Itasca</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv)</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>N=4096000 grid points</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17297,11 +17437,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$B$6</c:f>
+              <c:f>'Strong 4.096M nodes'!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17390,367 +17530,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.187248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$57:$A$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$C$57:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>229.491</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102.828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.77930000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.7995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.2852</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.62047</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.29734</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.65617</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.801324</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.330586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$57:$A$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$D$57:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>338.264</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>161.435</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.3736</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.4875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.6672</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.69557</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.78207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.39753</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.559307</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=101 (NOT ENOUGH MEMORY)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$57:$A$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$E$57:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$B$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$107:$A$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$B$107:$B$116</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>15.2634</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.9385</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.1997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.4392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.670079999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.36441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.05556</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.87821</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3171</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.16531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17762,7 +17541,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$C$105</c:f>
+              <c:f>'Strong 4.096M nodes'!$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17773,38 +17552,41 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$107:$A$116</c:f>
+              <c:f>'Strong 4.096M nodes'!$A$57:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -17812,39 +17594,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$C$107:$C$116</c:f>
+              <c:f>'Strong 4.096M nodes'!$C$57:$C$67</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>19.2692</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>229.491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.1126</c:v>
+                  <c:v>102.828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0059</c:v>
+                  <c:v>71.77930000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.8831</c:v>
+                  <c:v>54.812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.93478</c:v>
+                  <c:v>26.7995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.14152</c:v>
+                  <c:v>13.2852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.86099</c:v>
+                  <c:v>6.62047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.92815</c:v>
+                  <c:v>3.29734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8335</c:v>
+                  <c:v>1.65617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.45715</c:v>
+                  <c:v>0.801324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.330586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17856,7 +17641,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$D$105</c:f>
+              <c:f>'Strong 4.096M nodes'!$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17867,38 +17652,41 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$107:$A$116</c:f>
+              <c:f>'Strong 4.096M nodes'!$A$57:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -17906,104 +17694,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$D$107:$D$116</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>32.4221</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.5358</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.5202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.3696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.34446</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.93506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.46343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.44446</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 4.096M nodes'!$E$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=101 (NOT ENOUGH MEMORY)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$A$107:$A$116</c:f>
+              <c:f>'Strong 4.096M nodes'!$D$57:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>338.264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>161.435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>121.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>85.3736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.0</c:v>
+                  <c:v>39.4875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.0</c:v>
+                  <c:v>19.6672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.0</c:v>
+                  <c:v>9.69557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.0</c:v>
+                  <c:v>4.78207</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512.0</c:v>
+                  <c:v>2.39753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 4.096M nodes'!$E$107:$E$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                  <c:v>1.2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.559307</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -18044,6 +17771,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18074,16 +17802,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18097,16 +17821,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -18157,6 +17888,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18692,6 +18424,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -18727,6 +18460,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -18740,6 +18474,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18796,6 +18531,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19239,6 +18975,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -19252,6 +18989,7 @@
       <c:valAx>
         <c:axId val="2069913368"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -19273,6 +19011,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -19286,6 +19025,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19321,22 +19061,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Strong Scaling of MPI Communication Only on Itasca</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19726,6 +19467,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -19756,16 +19498,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -19783,12 +19521,23 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -19839,6 +19588,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20367,6 +20117,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -20407,6 +20158,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -20424,6 +20176,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20480,6 +20233,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20814,6 +20568,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -20848,6 +20603,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -20867,6 +20623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20924,7 +20681,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21528,16 +21285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>168564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22410,8 +22167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26202,8 +25959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74:I84"/>
+    <sheetView topLeftCell="L57" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26269,6 +26026,10 @@
       <c r="H4" s="1">
         <v>0.10539999999999999</v>
       </c>
+      <c r="I4">
+        <f>H4/H4</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5">
@@ -26295,6 +26056,10 @@
       <c r="H5" s="1">
         <v>0.1082</v>
       </c>
+      <c r="I5">
+        <f>$H$4/$H5</f>
+        <v>0.97412199630314222</v>
+      </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6">
@@ -26321,6 +26086,10 @@
       <c r="H6" s="1">
         <v>0.11045000000000001</v>
       </c>
+      <c r="I6">
+        <f>$H$4/$H6</f>
+        <v>0.95427795382526015</v>
+      </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7">
@@ -26347,6 +26116,10 @@
       <c r="H7" s="1">
         <v>0.26788800000000001</v>
       </c>
+      <c r="I7">
+        <f>$H$4/$H7</f>
+        <v>0.39344800812279757</v>
+      </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8">
@@ -26373,6 +26146,10 @@
       <c r="H8" s="1">
         <v>0.33501900000000001</v>
       </c>
+      <c r="I8">
+        <f>$H$4/$H8</f>
+        <v>0.3146090221748617</v>
+      </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9">
@@ -26399,6 +26176,10 @@
       <c r="H9" s="1">
         <v>0.40115000000000001</v>
       </c>
+      <c r="I9">
+        <f>$H$4/$H9</f>
+        <v>0.26274460924841081</v>
+      </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10">
@@ -26425,6 +26206,10 @@
       <c r="H10">
         <v>0.451181</v>
       </c>
+      <c r="I10">
+        <f>$H$4/$H10</f>
+        <v>0.23360912804395573</v>
+      </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11">
@@ -26451,6 +26236,10 @@
       <c r="H11">
         <v>0.67816399999999999</v>
       </c>
+      <c r="I11">
+        <f>$H$4/$H11</f>
+        <v>0.15541963300912462</v>
+      </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12">
@@ -26477,6 +26266,10 @@
       <c r="H12">
         <v>0.80666099999999996</v>
       </c>
+      <c r="I12">
+        <f>$H$4/$H12</f>
+        <v>0.13066207489887324</v>
+      </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13">
@@ -26503,6 +26296,10 @@
       <c r="H13">
         <v>1.1890400000000001</v>
       </c>
+      <c r="I13">
+        <f>$H$4/$H13</f>
+        <v>8.8642938841418273E-2</v>
+      </c>
       <c r="AF13" t="s">
         <v>52</v>
       </c>
@@ -26529,7 +26326,10 @@
       <c r="H14" s="1">
         <v>1.6982299999999999</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14">
+        <f>$H$4/$H14</f>
+        <v>6.206462022223138E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
@@ -27983,8 +27783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strong 4.096M nodes" sheetId="1" r:id="rId1"/>
@@ -22167,7 +22167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
@@ -25959,8 +25959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView topLeftCell="L57" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26329,6 +26329,12 @@
       <c r="I14">
         <f>$H$4/$H14</f>
         <v>6.206462022223138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1">
+        <f>D8/D9</f>
+        <v>0.80954735168083858</v>
       </c>
     </row>
     <row r="35" spans="1:8">

--- a/latex/performance_content/scaling/ItascaScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Strong 4.096M nodes" sheetId="1" r:id="rId1"/>
@@ -1691,11 +1691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070879304"/>
-        <c:axId val="2070882600"/>
+        <c:axId val="-2146925880"/>
+        <c:axId val="2121662504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070879304"/>
+        <c:axId val="-2146925880"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1725,12 +1725,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070882600"/>
+        <c:crossAx val="2121662504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070882600"/>
+        <c:axId val="2121662504"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1761,7 +1761,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070879304"/>
+        <c:crossAx val="-2146925880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1834,7 +1834,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2218,11 +2217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087454328"/>
-        <c:axId val="2087459672"/>
+        <c:axId val="2133111400"/>
+        <c:axId val="-2143841928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087454328"/>
+        <c:axId val="2133111400"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2245,19 +2244,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087459672"/>
+        <c:crossAx val="-2143841928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087459672"/>
+        <c:axId val="-2143841928"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2286,14 +2284,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087454328"/>
+        <c:crossAx val="2133111400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2304,7 +2301,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2361,7 +2357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2778,11 +2773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087520408"/>
-        <c:axId val="2087525944"/>
+        <c:axId val="2131496424"/>
+        <c:axId val="-2143260104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087520408"/>
+        <c:axId val="2131496424"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2805,19 +2800,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087525944"/>
+        <c:crossAx val="-2143260104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087525944"/>
+        <c:axId val="-2143260104"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2841,21 +2835,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087520408"/>
+        <c:crossAx val="2131496424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2912,7 +2904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3229,11 +3220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087563256"/>
-        <c:axId val="2087568728"/>
+        <c:axId val="-2143126968"/>
+        <c:axId val="-2143121496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087563256"/>
+        <c:axId val="-2143126968"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3256,19 +3247,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087568728"/>
+        <c:crossAx val="-2143121496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087568728"/>
+        <c:axId val="-2143121496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,14 +3281,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087563256"/>
+        <c:crossAx val="-2143126968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3311,7 +3300,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3379,7 +3367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3654,11 +3641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087606136"/>
-        <c:axId val="2087611624"/>
+        <c:axId val="2111268584"/>
+        <c:axId val="2111161368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087606136"/>
+        <c:axId val="2111268584"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3681,19 +3668,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087611624"/>
+        <c:crossAx val="2111161368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087611624"/>
+        <c:axId val="2111161368"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3722,21 +3708,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087606136"/>
+        <c:crossAx val="2111268584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3793,7 +3777,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4198,11 +4181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112096344"/>
-        <c:axId val="2112101912"/>
+        <c:axId val="2122271896"/>
+        <c:axId val="2131535544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112096344"/>
+        <c:axId val="2122271896"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4225,19 +4208,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112101912"/>
+        <c:crossAx val="2131535544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112101912"/>
+        <c:axId val="2131535544"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4266,14 +4248,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112096344"/>
+        <c:crossAx val="2122271896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4284,7 +4265,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4341,7 +4321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4649,11 +4628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112146888"/>
-        <c:axId val="2112152376"/>
+        <c:axId val="-2147466088"/>
+        <c:axId val="-2143557992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112146888"/>
+        <c:axId val="-2147466088"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4676,19 +4655,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112152376"/>
+        <c:crossAx val="-2143557992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112152376"/>
+        <c:axId val="-2143557992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,14 +4689,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112146888"/>
+        <c:crossAx val="-2147466088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4731,7 +4708,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4783,7 +4759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5400,11 +5375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112206088"/>
-        <c:axId val="2112211704"/>
+        <c:axId val="2111239640"/>
+        <c:axId val="2111525016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112206088"/>
+        <c:axId val="2111239640"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5427,19 +5402,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112211704"/>
+        <c:crossAx val="2111525016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112211704"/>
+        <c:axId val="2111525016"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5468,14 +5442,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112206088"/>
+        <c:crossAx val="2111239640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5488,7 +5461,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5540,7 +5512,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5839,11 +5810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112246056"/>
-        <c:axId val="2112251576"/>
+        <c:axId val="2122046024"/>
+        <c:axId val="2111233544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112246056"/>
+        <c:axId val="2122046024"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5866,19 +5837,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112251576"/>
+        <c:crossAx val="2111233544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112251576"/>
+        <c:axId val="2111233544"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5907,21 +5877,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112246056"/>
+        <c:crossAx val="2122046024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5973,7 +5941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6390,11 +6357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112295832"/>
-        <c:axId val="2112301400"/>
+        <c:axId val="2121635032"/>
+        <c:axId val="-2147277384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112295832"/>
+        <c:axId val="2121635032"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6417,19 +6384,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112301400"/>
+        <c:crossAx val="-2147277384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112301400"/>
+        <c:axId val="-2147277384"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6453,14 +6419,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112295832"/>
+        <c:crossAx val="2121635032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6473,7 +6438,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6526,7 +6490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6843,11 +6806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112338872"/>
-        <c:axId val="2112344392"/>
+        <c:axId val="2131017176"/>
+        <c:axId val="-2147460696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112338872"/>
+        <c:axId val="2131017176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6870,19 +6833,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112344392"/>
+        <c:crossAx val="-2147460696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112344392"/>
+        <c:axId val="-2147460696"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6911,14 +6873,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112338872"/>
+        <c:crossAx val="2131017176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6931,7 +6892,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7470,11 +7430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069955496"/>
-        <c:axId val="2069949784"/>
+        <c:axId val="2131403080"/>
+        <c:axId val="2131470216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069955496"/>
+        <c:axId val="2131403080"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7504,12 +7464,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069949784"/>
+        <c:crossAx val="2131470216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069949784"/>
+        <c:axId val="2131470216"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7540,7 +7500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069955496"/>
+        <c:crossAx val="2131403080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7613,7 +7573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7930,11 +7889,678 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112383928"/>
-        <c:axId val="2112389432"/>
+        <c:axId val="2121466968"/>
+        <c:axId val="2121565016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112383928"/>
+        <c:axId val="2121466968"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processes (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121565016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121565016"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121466968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Speedup of SpMV + MPI Communication on Itasca</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="2000"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>N=4096000 grid points; IMPI (MPI_Alltoallv) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.906127120609203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.394807687514021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.170598390732998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.39163314053616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.38259547948801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.90681040327485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.59959023180402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.2686621688249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.2351051358997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.30511514884254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$K$7:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.879583295796103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.524841467868915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.334626505673976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.640472966164387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.81267373380448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.50510364521804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.04527968878941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.03248310442555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.09892690115557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.56485217625372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$L$7:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7449113286771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.184641018851596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.135080028545214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.280264450166813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.657798241019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.63556124080588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.46230583421881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.68740151571996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.67291021265737</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5769568074986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 4.096M nodes'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=101 (NOT ENOUGH MEMORY)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$M$7:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 4.096M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2134806632"/>
+        <c:axId val="2134812200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2134806632"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7964,15 +8590,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112389432"/>
+        <c:crossAx val="2134812200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112389432"/>
+        <c:axId val="2134812200"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="1024.0"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7988,36 +8616,30 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112383928"/>
+        <c:crossAx val="2134806632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4.0"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -8025,6 +8647,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -8033,7 +8665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8484,11 +9116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083083176"/>
-        <c:axId val="2083088760"/>
+        <c:axId val="-2147441640"/>
+        <c:axId val="2122066888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083083176"/>
+        <c:axId val="-2147441640"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -8518,12 +9150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083088760"/>
+        <c:crossAx val="2122066888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083088760"/>
+        <c:axId val="2122066888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8553,7 +9185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083083176"/>
+        <c:crossAx val="-2147441640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8585,7 +9217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9036,11 +9668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083132008"/>
-        <c:axId val="2083137592"/>
+        <c:axId val="2111023912"/>
+        <c:axId val="2111011240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083132008"/>
+        <c:axId val="2111023912"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9070,12 +9702,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083137592"/>
+        <c:crossAx val="2111011240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083137592"/>
+        <c:axId val="2111011240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9105,7 +9737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083132008"/>
+        <c:crossAx val="2111023912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9137,7 +9769,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9556,11 +10188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083177144"/>
-        <c:axId val="2083182728"/>
+        <c:axId val="2110948936"/>
+        <c:axId val="2110938184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083177144"/>
+        <c:axId val="2110948936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -9590,12 +10222,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083182728"/>
+        <c:crossAx val="2110938184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083182728"/>
+        <c:axId val="2110938184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9625,7 +10257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083177144"/>
+        <c:crossAx val="2110948936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9657,7 +10289,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9703,7 +10335,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9996,11 +10627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122590008"/>
-        <c:axId val="2122586440"/>
+        <c:axId val="2110886200"/>
+        <c:axId val="2110877880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122590008"/>
+        <c:axId val="2110886200"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10023,19 +10654,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122586440"/>
+        <c:crossAx val="2110877880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122586440"/>
+        <c:axId val="2110877880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10062,21 +10692,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122590008"/>
+        <c:crossAx val="2110886200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10091,7 +10719,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10146,7 +10774,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10463,11 +11090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112452680"/>
-        <c:axId val="2112458152"/>
+        <c:axId val="2110821144"/>
+        <c:axId val="2110816360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112452680"/>
+        <c:axId val="2110821144"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10490,19 +11117,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112458152"/>
+        <c:crossAx val="2110816360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112458152"/>
+        <c:axId val="2110816360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10529,21 +11155,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112452680"/>
+        <c:crossAx val="2110821144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10558,7 +11182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10599,7 +11223,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10892,11 +11515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112494424"/>
-        <c:axId val="2112499944"/>
+        <c:axId val="-2140664808"/>
+        <c:axId val="-2140659304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112494424"/>
+        <c:axId val="-2140664808"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -10919,19 +11542,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112499944"/>
+        <c:crossAx val="-2140659304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112499944"/>
+        <c:axId val="-2140659304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10958,21 +11580,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112494424"/>
+        <c:crossAx val="-2140664808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10987,7 +11607,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11836,11 +12456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112563768"/>
-        <c:axId val="2112569304"/>
+        <c:axId val="-2140595800"/>
+        <c:axId val="-2140590248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112563768"/>
+        <c:axId val="-2140595800"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -11870,12 +12490,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112569304"/>
+        <c:crossAx val="-2140590248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112569304"/>
+        <c:axId val="-2140590248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11909,7 +12529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112563768"/>
+        <c:crossAx val="-2140595800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11931,7 +12551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12383,11 +13003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112606472"/>
-        <c:axId val="2112612056"/>
+        <c:axId val="-2140552888"/>
+        <c:axId val="-2140547304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112606472"/>
+        <c:axId val="-2140552888"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -12417,12 +13037,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112612056"/>
+        <c:crossAx val="-2140547304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112612056"/>
+        <c:axId val="-2140547304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -12457,662 +13077,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112606472"/>
+        <c:crossAx val="-2140552888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Strong Scaling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal (Linear)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.268365039933968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.887629514461706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.450424078082751</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.232417594845928</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.514806738690297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.00903717927262</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.1629383665385</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.06130171543895</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.90040939043013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.319247175737121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.766565120588745</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.201084722112633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.000951210812096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.082506257012168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.419478783828933</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.25737970735138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.91395437022057</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.43869237908631</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.64579109590698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.44516213431884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.45595506592644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.201495273611819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.872942082659032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.195886950954388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.329365811261833</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.31778389581465</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.61733986021309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.22679087433796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.77430604551777</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.88953118085947</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=101</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.913305441611979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.802006305054857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.801654011791154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.77116415942367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.28301827272656</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.95288777141297</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.16904243470712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.78297531281257</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.04212390768688</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.58479024421346</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2112693496"/>
-        <c:axId val="2112699464"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2112693496"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Processor</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Count (8 ppn)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112699464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2112699464"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112693496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -13487,11 +13458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087293880"/>
-        <c:axId val="2087299368"/>
+        <c:axId val="2135784136"/>
+        <c:axId val="2131350888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087293880"/>
+        <c:axId val="2135784136"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13521,12 +13492,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087299368"/>
+        <c:crossAx val="2131350888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087299368"/>
+        <c:axId val="2131350888"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -13557,7 +13528,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087293880"/>
+        <c:crossAx val="2135784136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13610,32 +13581,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time (ms) per SpMV</a:t>
+              <a:t>Strong Scaling</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (N=100^3 points, with MPI_Alltoallv Collective)</a:t>
+              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.059415790001916"/>
-          <c:y val="0.086183574879227"/>
-          <c:w val="0.831730184943568"/>
-          <c:h val="0.818460648940621"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -13644,11 +13604,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$C$6</c:f>
+              <c:f>'Strong 1M nodes'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=17</c:v>
+                  <c:v>Ideal (Linear)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13697,42 +13657,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$C$7:$C$17</c:f>
+              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>31.8092</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.0789</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.8514</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.9811</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.51561</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.23287</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.27062</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.37328</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5856</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.68299</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.41328</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13744,11 +13704,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$E$6</c:f>
+              <c:f>'Strong 1M nodes'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=31</c:v>
+                  <c:v>n=17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13797,42 +13757,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$E$7:$E$17</c:f>
+              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>53.0019</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0028</c:v>
+                  <c:v>1.268365039933968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.0799</c:v>
+                  <c:v>1.887629514461706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.6617</c:v>
+                  <c:v>2.450424078082751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.4283</c:v>
+                  <c:v>4.232417594845928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.62684</c:v>
+                  <c:v>7.514806738690297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.07126</c:v>
+                  <c:v>14.00903717927262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.89876</c:v>
+                  <c:v>23.1629383665385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.45455</c:v>
+                  <c:v>20.06130171543895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.06669</c:v>
+                  <c:v>18.90040939043013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.66918</c:v>
+                  <c:v>9.319247175737121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13844,11 +13804,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$G$6</c:f>
+              <c:f>'Strong 1M nodes'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=50</c:v>
+                  <c:v>n=31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13897,42 +13857,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$G$7:$G$17</c:f>
+              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>73.8507</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.7232</c:v>
+                  <c:v>1.766565120588745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.5457</c:v>
+                  <c:v>2.201084722112633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.7056</c:v>
+                  <c:v>3.000951210812096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2133</c:v>
+                  <c:v>5.082506257012168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.91594</c:v>
+                  <c:v>9.419478783828933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.52578</c:v>
+                  <c:v>17.25737970735138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.67407</c:v>
+                  <c:v>27.91395437022057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.44322</c:v>
+                  <c:v>36.43869237908631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.48035</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.90961</c:v>
+                  <c:v>25.64579109590698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.44516213431884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13944,11 +13904,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$I$6</c:f>
+              <c:f>'Strong 1M nodes'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=101</c:v>
+                  <c:v>n=50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13997,42 +13957,142 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$I$7:$I$17</c:f>
+              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>168.43</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.0309</c:v>
+                  <c:v>1.45595506592644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.1105</c:v>
+                  <c:v>2.201495273611819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.3044</c:v>
+                  <c:v>2.872942082659032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.8746</c:v>
+                  <c:v>5.195886950954388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.6801</c:v>
+                  <c:v>9.329365811261833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.03172</c:v>
+                  <c:v>16.31778389581465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.19303</c:v>
+                  <c:v>27.61733986021309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.01938</c:v>
+                  <c:v>30.22679087433796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.06002</c:v>
+                  <c:v>29.77430604551777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.33263</c:v>
+                  <c:v>18.88953118085947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.913305441611979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.802006305054857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.801654011791154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.77116415942367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.28301827272656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.95288777141297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.16904243470712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.78297531281257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.04212390768688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.58479024421346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14047,11 +14107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112742168"/>
-        <c:axId val="2112747992"/>
+        <c:axId val="-2140472424"/>
+        <c:axId val="-2140466456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112742168"/>
+        <c:axId val="-2140472424"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14079,19 +14139,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112747992"/>
+        <c:crossAx val="-2140466456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112747992"/>
+        <c:axId val="-2140466456"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14110,26 +14169,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112742168"/>
+        <c:crossAx val="-2140472424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14169,22 +14226,31 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Strong Scaling</a:t>
+              <a:t>Time (ms) per SpMV</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
+              <a:t> (N=100^3 points, with MPI_Alltoallv Collective)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.059415790001916"/>
+          <c:y val="0.086183574879227"/>
+          <c:w val="0.831730184943568"/>
+          <c:h val="0.818460648940621"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -14193,11 +14259,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$B$6</c:f>
+              <c:f>'Strong 1M nodes'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ideal (Linear)</c:v>
+                  <c:v>n=17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14246,42 +14312,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
+              <c:f>'Strong 1M nodes'!$C$7:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>31.8092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>25.0789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>16.8514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>12.9811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>7.51561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>4.23287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>2.27062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.0</c:v>
+                  <c:v>1.37328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256.0</c:v>
+                  <c:v>1.5856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512.0</c:v>
+                  <c:v>1.68299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024.0</c:v>
+                  <c:v>3.41328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14289,15 +14355,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$D$6</c:f>
+              <c:f>'Strong 1M nodes'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=17</c:v>
+                  <c:v>n=31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14346,42 +14412,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
+              <c:f>'Strong 1M nodes'!$E$7:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>53.0019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.268365039933968</c:v>
+                  <c:v>30.0028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.887629514461706</c:v>
+                  <c:v>24.0799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.450424078082751</c:v>
+                  <c:v>17.6617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.232417594845928</c:v>
+                  <c:v>10.4283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.514806738690297</c:v>
+                  <c:v>5.62684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.00903717927262</c:v>
+                  <c:v>3.07126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.1629383665385</c:v>
+                  <c:v>1.89876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.06130171543895</c:v>
+                  <c:v>1.45455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.90040939043013</c:v>
+                  <c:v>2.06669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.319247175737121</c:v>
+                  <c:v>3.66918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14389,15 +14455,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$F$6</c:f>
+              <c:f>'Strong 1M nodes'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=31</c:v>
+                  <c:v>n=50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14446,42 +14512,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
+              <c:f>'Strong 1M nodes'!$G$7:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>73.8507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.766565120588745</c:v>
+                  <c:v>50.7232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.201084722112633</c:v>
+                  <c:v>33.5457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.000951210812096</c:v>
+                  <c:v>25.7056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.082506257012168</c:v>
+                  <c:v>14.2133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.419478783828933</c:v>
+                  <c:v>7.91594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.25737970735138</c:v>
+                  <c:v>4.52578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.91395437022057</c:v>
+                  <c:v>2.67407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.43869237908631</c:v>
+                  <c:v>2.44322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.64579109590698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.44516213431884</c:v>
+                  <c:v>2.48035</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.90961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14489,15 +14555,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Strong 1M nodes'!$H$6</c:f>
+              <c:f>'Strong 1M nodes'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n=50</c:v>
+                  <c:v>n=101</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14546,142 +14612,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
+              <c:f>'Strong 1M nodes'!$I$7:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>168.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45595506592644</c:v>
+                  <c:v>88.0309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.201495273611819</c:v>
+                  <c:v>60.1105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.872942082659032</c:v>
+                  <c:v>44.3044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.195886950954388</c:v>
+                  <c:v>24.8746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.329365811261833</c:v>
+                  <c:v>12.6801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.31778389581465</c:v>
+                  <c:v>7.03172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.61733986021309</c:v>
+                  <c:v>4.19303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.22679087433796</c:v>
+                  <c:v>3.01938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.77430604551777</c:v>
+                  <c:v>3.06002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.88953118085947</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Strong 1M nodes'!$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n=101</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.913305441611979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.802006305054857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.801654011791154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.77116415942367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.28301827272656</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.95288777141297</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.16904243470712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.78297531281257</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.04212390768688</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31.58479024421346</c:v>
+                  <c:v>5.33263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14696,11 +14662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112794440"/>
-        <c:axId val="2112800408"/>
+        <c:axId val="-2140424312"/>
+        <c:axId val="-2140418488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112794440"/>
+        <c:axId val="-2140424312"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14728,19 +14694,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112800408"/>
+        <c:crossAx val="-2140418488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112800408"/>
+        <c:axId val="-2140418488"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -14759,26 +14724,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112794440"/>
+        <c:crossAx val="-2140424312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14818,12 +14781,656 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Strong Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of CPU SpMV on Itasca With Intel MPI (N=100^3 points; 3D)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.268365039933968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.887629514461706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.450424078082751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.232417594845928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.514806738690297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.00903717927262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.1629383665385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.06130171543895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.90040939043013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.319247175737121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.766565120588745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.201084722112633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.000951210812096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.082506257012168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.419478783828933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.25737970735138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.91395437022057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.43869237908631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.64579109590698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.44516213431884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$H$7:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.45595506592644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.201495273611819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.872942082659032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.195886950954388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.329365811261833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.31778389581465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.61733986021309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.22679087433796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.77430604551777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.88953118085947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong 1M nodes'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n=101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Strong 1M nodes'!$J$7:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.913305441611979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.802006305054857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.801654011791154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.77116415942367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.28301827272656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.95288777141297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.16904243470712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.78297531281257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.04212390768688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.58479024421346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2140372040"/>
+        <c:axId val="-2140366072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2140372040"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count (8 ppn)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140366072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2140366072"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140372040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Efficiency</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15240,11 +15847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112837160"/>
-        <c:axId val="2083025832"/>
+        <c:axId val="-2140329320"/>
+        <c:axId val="-2140324024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112837160"/>
+        <c:axId val="-2140329320"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -15252,19 +15859,18 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083025832"/>
+        <c:crossAx val="-2140324024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083025832"/>
+        <c:axId val="-2140324024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -15273,21 +15879,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112837160"/>
+        <c:crossAx val="-2140329320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15302,7 +15906,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15332,7 +15936,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15551,11 +16154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2083260872"/>
-        <c:axId val="2083266408"/>
+        <c:axId val="-2140274376"/>
+        <c:axId val="-2140268840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083260872"/>
+        <c:axId val="-2140274376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15577,14 +16180,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083266408"/>
+        <c:crossAx val="-2140268840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15592,7 +16194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083266408"/>
+        <c:axId val="-2140268840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15615,14 +16217,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083260872"/>
+        <c:crossAx val="-2140274376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -15632,250 +16233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SpMV Iterations Required to Amortize Cost of Preprocessing (N=1M nodes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cost comparison'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iterations required</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3099.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3189.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2667.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2336.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2882.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4355.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6826.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10329.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14114.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13253.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7633.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2083301048"/>
-        <c:axId val="2083306808"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2083301048"/>
-        <c:scaling>
-          <c:logBase val="2.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Processors</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (8 ppn)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083306808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2083306808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SpMV Iterations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083301048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15915,42 +16272,34 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime</a:t>
+              <a:t>SpMV Iterations Required to Amortize Cost of Preprocessing (N=1M nodes)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Summary on Itasca, RBF-FD Regular Grid N=100^3 (3D), 1000 Iterations </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost comparison'!$A$3</c:f>
+              <c:f>'Cost comparison'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Generate Stencils (Hash HNX=100) [ms]</c:v>
+                  <c:v>Iterations required</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Cost comparison'!$B$2:$L$2</c:f>
               <c:numCache>
@@ -15991,249 +16340,50 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Cost comparison'!$B$3:$L$3</c:f>
+              <c:f>'Cost comparison'!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>39545.8203</c:v>
+                  <c:v>3099.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39296.0938</c:v>
+                  <c:v>3189.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39630.5859</c:v>
+                  <c:v>2667.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40692.1406</c:v>
+                  <c:v>2336.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40050.7031</c:v>
+                  <c:v>2882.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39436.0078</c:v>
+                  <c:v>4355.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40137.5156</c:v>
+                  <c:v>6826.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39387.3711</c:v>
+                  <c:v>10329.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40614.3164</c:v>
+                  <c:v>14114.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39473.9062</c:v>
+                  <c:v>13253.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40202.2266</c:v>
+                  <c:v>7633.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cost comparison'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compute 1M Weights (direct) [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>482232.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>241401.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120684.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62786.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31627.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15779.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7860.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3920.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1999.39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1078.92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>500.564</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cost comparison'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SpMV (4000 iters)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cost comparison'!$B$8:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>673721.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352123.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240442.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177218.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99498.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50720.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28126.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16772.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12077.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12240.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21330.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16243,14 +16393,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="2083346344"/>
-        <c:axId val="2083351832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2083346344"/>
+        <c:axId val="-2140234744"/>
+        <c:axId val="-2140228984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2140234744"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -16266,27 +16415,28 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processors (8 ppn)</a:t>
+                  <a:t>Processors</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (8 ppn)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083351832"/>
+        <c:crossAx val="-2140228984"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2083351832"/>
+        <c:axId val="-2140228984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16304,29 +16454,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
+                  <a:t>SpMV Iterations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083346344"/>
+        <c:crossAx val="-2140234744"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16366,6 +16511,453 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summary on Itasca, RBF-FD Regular Grid N=100^3 (3D), 1000 Iterations </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generate Stencils (Hash HNX=100) [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>39545.8203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39296.0938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39630.5859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40692.1406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40050.7031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39436.0078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40137.5156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39387.3711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40614.3164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39473.9062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40202.2266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compute 1M Weights (direct) [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>482232.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241401.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120684.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62786.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31627.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15779.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7860.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3920.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1078.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500.564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost comparison'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpMV (4000 iters)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost comparison'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>673721.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352123.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240442.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177218.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99498.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50720.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28126.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16772.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12077.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12240.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21330.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2140189448"/>
+        <c:axId val="-2140183960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140189448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processors (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140183960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140183960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140189448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time (ms) per SpMV</a:t>
             </a:r>
             <a:r>
@@ -16376,7 +16968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16737,11 +17328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112847288"/>
-        <c:axId val="2112853112"/>
+        <c:axId val="-2140700328"/>
+        <c:axId val="-2140706152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112847288"/>
+        <c:axId val="-2140700328"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16769,19 +17360,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112853112"/>
+        <c:crossAx val="-2140706152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112853112"/>
+        <c:axId val="-2140706152"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -16805,21 +17395,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112847288"/>
+        <c:crossAx val="-2140700328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16834,7 +17422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17293,11 +17881,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111919752"/>
-        <c:axId val="2111913928"/>
+        <c:axId val="-2140745944"/>
+        <c:axId val="-2140751768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111919752"/>
+        <c:axId val="-2140745944"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17325,19 +17913,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111913928"/>
+        <c:crossAx val="-2140751768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111913928"/>
+        <c:axId val="-2140751768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17361,21 +17948,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111919752"/>
+        <c:crossAx val="-2140745944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17744,11 +18329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087377384"/>
-        <c:axId val="2087382840"/>
+        <c:axId val="-2143215336"/>
+        <c:axId val="-2144544616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087377384"/>
+        <c:axId val="-2143215336"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17778,12 +18363,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087382840"/>
+        <c:crossAx val="-2144544616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087382840"/>
+        <c:axId val="-2144544616"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -17814,7 +18399,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087377384"/>
+        <c:crossAx val="-2143215336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18397,11 +18982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087426616"/>
-        <c:axId val="2087432328"/>
+        <c:axId val="2126703016"/>
+        <c:axId val="2127056728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087426616"/>
+        <c:axId val="2126703016"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18431,12 +19016,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087432328"/>
+        <c:crossAx val="2127056728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087432328"/>
+        <c:axId val="2127056728"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18467,7 +19052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087426616"/>
+        <c:crossAx val="2126703016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18948,11 +19533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069918936"/>
-        <c:axId val="2069913368"/>
+        <c:axId val="2133470488"/>
+        <c:axId val="2133756808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069918936"/>
+        <c:axId val="2133470488"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -18982,12 +19567,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069913368"/>
+        <c:crossAx val="2133756808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069913368"/>
+        <c:axId val="2133756808"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19018,7 +19603,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069918936"/>
+        <c:crossAx val="2133470488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19077,7 +19662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19440,11 +20024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122464952"/>
-        <c:axId val="2122470456"/>
+        <c:axId val="2110196152"/>
+        <c:axId val="2135085064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122464952"/>
+        <c:axId val="2110196152"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19467,19 +20051,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122470456"/>
+        <c:crossAx val="2135085064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122470456"/>
+        <c:axId val="2135085064"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -19503,14 +20086,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122464952"/>
+        <c:crossAx val="2110196152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19521,7 +20103,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19588,7 +20169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20090,11 +20670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122518152"/>
-        <c:axId val="2122523848"/>
+        <c:axId val="2131475992"/>
+        <c:axId val="2111680760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122518152"/>
+        <c:axId val="2131475992"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20117,19 +20697,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122523848"/>
+        <c:crossAx val="2111680760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122523848"/>
+        <c:axId val="2111680760"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20158,14 +20737,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122518152"/>
+        <c:crossAx val="2131475992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20176,7 +20754,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20233,7 +20810,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20541,11 +21117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122561992"/>
-        <c:axId val="2122567464"/>
+        <c:axId val="-2142875544"/>
+        <c:axId val="2121914552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122561992"/>
+        <c:axId val="-2142875544"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -20568,19 +21144,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122567464"/>
+        <c:crossAx val="2121914552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122567464"/>
+        <c:axId val="2121914552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20603,14 +21178,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122561992"/>
+        <c:crossAx val="-2142875544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20623,7 +21197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20672,16 +21245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21273,6 +21846,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22167,8 +22772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25959,7 +26564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -26057,7 +26662,7 @@
         <v>0.1082</v>
       </c>
       <c r="I5">
-        <f>$H$4/$H5</f>
+        <f t="shared" ref="I5:I14" si="0">$H$4/$H5</f>
         <v>0.97412199630314222</v>
       </c>
     </row>
@@ -26087,7 +26692,7 @@
         <v>0.11045000000000001</v>
       </c>
       <c r="I6">
-        <f>$H$4/$H6</f>
+        <f t="shared" si="0"/>
         <v>0.95427795382526015</v>
       </c>
     </row>
@@ -26117,7 +26722,7 @@
         <v>0.26788800000000001</v>
       </c>
       <c r="I7">
-        <f>$H$4/$H7</f>
+        <f t="shared" si="0"/>
         <v>0.39344800812279757</v>
       </c>
     </row>
@@ -26147,7 +26752,7 @@
         <v>0.33501900000000001</v>
       </c>
       <c r="I8">
-        <f>$H$4/$H8</f>
+        <f t="shared" si="0"/>
         <v>0.3146090221748617</v>
       </c>
     </row>
@@ -26177,7 +26782,7 @@
         <v>0.40115000000000001</v>
       </c>
       <c r="I9">
-        <f>$H$4/$H9</f>
+        <f t="shared" si="0"/>
         <v>0.26274460924841081</v>
       </c>
     </row>
@@ -26207,7 +26812,7 @@
         <v>0.451181</v>
       </c>
       <c r="I10">
-        <f>$H$4/$H10</f>
+        <f t="shared" si="0"/>
         <v>0.23360912804395573</v>
       </c>
     </row>
@@ -26237,7 +26842,7 @@
         <v>0.67816399999999999</v>
       </c>
       <c r="I11">
-        <f>$H$4/$H11</f>
+        <f t="shared" si="0"/>
         <v>0.15541963300912462</v>
       </c>
     </row>
@@ -26267,7 +26872,7 @@
         <v>0.80666099999999996</v>
       </c>
       <c r="I12">
-        <f>$H$4/$H12</f>
+        <f t="shared" si="0"/>
         <v>0.13066207489887324</v>
       </c>
     </row>
@@ -26297,7 +26902,7 @@
         <v>1.1890400000000001</v>
       </c>
       <c r="I13">
-        <f>$H$4/$H13</f>
+        <f t="shared" si="0"/>
         <v>8.8642938841418273E-2</v>
       </c>
       <c r="AF13" t="s">
@@ -26327,7 +26932,7 @@
         <v>1.6982299999999999</v>
       </c>
       <c r="I14">
-        <f>$H$4/$H14</f>
+        <f t="shared" si="0"/>
         <v>6.206462022223138E-2</v>
       </c>
     </row>
